--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1223.20967999122</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.01835187955221363</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.0198155583747985</v>
+      </c>
+      <c r="D2">
         <v>7.492143664247253</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>8.192618282170365</v>
+      </c>
+      <c r="F2">
         <v>6.148704945376994</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>202.8560856653752</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.014836587215558</v>
       </c>
-      <c r="H2" t="n">
-        <v>1440.739802732988</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>1448.933884693981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>909.7521269499916</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.01911654120022253</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.02064120664041511</v>
+      </c>
+      <c r="D3">
         <v>7.317907765078714</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>5.765175828193964</v>
+      </c>
+      <c r="F3">
         <v>6.4109719809618</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>142.573380962929</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.7760515078707207</v>
       </c>
-      <c r="H3" t="n">
-        <v>1066.849555708032</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1072.616256201666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>983.8860469494597</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.02064586449624033</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.02229250317164831</v>
+      </c>
+      <c r="D4">
         <v>6.098256470898929</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>8.192618282170365</v>
+      </c>
+      <c r="F4">
         <v>5.27448149342766</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>140.6596443057084</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.3581776190172558</v>
       </c>
-      <c r="H4" t="n">
-        <v>1136.297252703008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1144.491517623854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>917.0043582542874</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.02523383438429374</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.02724639276534794</v>
+      </c>
+      <c r="D5">
         <v>8.014851361752878</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>6.675466748435113</v>
+      </c>
+      <c r="F5">
         <v>4.429398823209969</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>127.2634877051647</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.6566589681983023</v>
       </c>
-      <c r="H5" t="n">
-        <v>1057.393988946998</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1064.071468253814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>952.4597112975108</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.03058646592035604</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.03302593062466417</v>
+      </c>
+      <c r="D6">
         <v>6.795200067573091</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>8.647763742290941</v>
+      </c>
+      <c r="F6">
         <v>5.128777584769439</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>132.0478293482161</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.7163552380345116</v>
       </c>
-      <c r="H6" t="n">
-        <v>1097.178460002024</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1105.82866320902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>936.3436417324097</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.02446917273628484</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.02642074449973134</v>
+      </c>
+      <c r="D7">
         <v>8.36332316008996</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>6.523751595061586</v>
+      </c>
+      <c r="F7">
         <v>5.769874782865617</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>134.9184343340468</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.6566589681983023</v>
       </c>
-      <c r="H7" t="n">
-        <v>1086.076402150347</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1092.602105317172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>986.3034573842249</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.02676315768031154</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.02889768929658115</v>
+      </c>
+      <c r="D8">
         <v>5.749784672561842</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>6.978897055182166</v>
+      </c>
+      <c r="F8">
         <v>5.187059148232726</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>103.3417794899082</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.8357477777069302</v>
       </c>
-      <c r="H8" t="n">
-        <v>1101.444591630315</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1108.425623217114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1345.691808685994</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.01529323296017802</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.01651296531233208</v>
+      </c>
+      <c r="D9">
         <v>11.49956934512368</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>9.406339509158569</v>
+      </c>
+      <c r="F9">
         <v>5.740734001133974</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>100.4711745040774</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.596962698362093</v>
       </c>
-      <c r="H9" t="n">
-        <v>1464.015542467651</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1473.423101709162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1640.615881727354</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.02064586449624033</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.02229250317164831</v>
+      </c>
+      <c r="D10">
         <v>6.795200067573091</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>9.558054662532092</v>
+      </c>
+      <c r="F10">
         <v>3.438612244334055</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>38.27473314441046</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>1.313317936396605</v>
       </c>
-      <c r="H10" t="n">
-        <v>1690.458390984564</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>1700.018092285771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1580.180620858222</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.01835187955221363</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.0198155583747985</v>
+      </c>
+      <c r="D11">
         <v>5.749784672561842</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>11.22692134964088</v>
+      </c>
+      <c r="F11">
         <v>2.447825665458141</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>23.92170821525652</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2387850793448371</v>
       </c>
-      <c r="H11" t="n">
-        <v>1612.557076370396</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1623.78546139886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1136.988707817925</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.02523383438429374</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.02724639276534794</v>
+      </c>
+      <c r="D12">
         <v>5.052841075887683</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>10.62006073614677</v>
+      </c>
+      <c r="F12">
         <v>1.54446143177716</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>32.53352317274889</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H12" t="n">
-        <v>1176.264159872396</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1186.886233166924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>820.3079408636768</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.03976240569646285</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.04293370981206341</v>
+      </c>
+      <c r="D13">
         <v>3.658953882539357</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>9.102909202411521</v>
+      </c>
+      <c r="F13">
         <v>1.253053614460715</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>33.49039150135914</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2984813491810465</v>
       </c>
-      <c r="H13" t="n">
-        <v>859.0485836169134</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>868.1546641234405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>614.8280539086303</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.02293984944026704</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.02476944796849813</v>
+      </c>
+      <c r="D14">
         <v>1.916594890853949</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>8.951194049037991</v>
+      </c>
+      <c r="F14">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>17.22362991498471</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.2984813491810465</v>
       </c>
-      <c r="H14" t="n">
-        <v>635.0765010198447</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>644.029524667411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>387.591473040696</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.03058646592035604</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.03302593062466417</v>
+      </c>
+      <c r="D15">
         <v>1.916594890853949</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>5.006600061326335</v>
+      </c>
+      <c r="F15">
         <v>0.6993787615594687</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>12.4392882719334</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H15" t="n">
-        <v>402.7967139706356</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>407.8057534966662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>228.0423843461892</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.01758721790420472</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.0189899101091819</v>
+      </c>
+      <c r="D16">
         <v>0.6969435966741633</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.27572730060288</v>
+      </c>
+      <c r="F16">
         <v>0.6410971980961798</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>21.05110322942576</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H16" t="n">
-        <v>250.5685081279619</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>252.8456381207698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>137.7923947816197</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.01299924801615132</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.01403602051548227</v>
+      </c>
+      <c r="D17">
         <v>0.1742358991685408</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.9102909202411517</v>
+      </c>
+      <c r="F17">
         <v>0.9325050154126251</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>20.09423490081549</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.05969626983620929</v>
       </c>
-      <c r="H17" t="n">
-        <v>159.0660661148687</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>159.9773938076092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>103.142845216651</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.01988120284823143</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.02146685490603171</v>
+      </c>
+      <c r="D18">
         <v>0.3484717983370816</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.3034303067470507</v>
+      </c>
+      <c r="F18">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>14.35302492915392</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>118.6510242537446</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>118.9560402125495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>60.43526086913144</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.009175939776106814</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.009907779187399251</v>
+      </c>
+      <c r="D19">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.1517151533735253</v>
+      </c>
+      <c r="F19">
         <v>0.6119564163645351</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>21.05110322942576</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>82.63020415220348</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>82.78265114498828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>82.19195478201873</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.00688195483208011</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.007430834390549438</v>
+      </c>
+      <c r="D20">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.213721226988203</v>
+      </c>
+      <c r="F20">
         <v>0.5828156346328907</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>11.48241994332313</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>94.78678001231246</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>96.00105011885913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>165.1897130422926</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.01070526307212461</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.01155907571863246</v>
+      </c>
+      <c r="D21">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.7585757668676263</v>
+      </c>
+      <c r="F21">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>23.92170821525652</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.1790888095086279</v>
       </c>
-      <c r="H21" t="n">
-        <v>190.6107241343899</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>191.370153713904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>489.9285147790919</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.01376390966416022</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.01486166878109888</v>
+      </c>
+      <c r="D22">
         <v>3.310482084202276</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>3.337733374217557</v>
+      </c>
+      <c r="F22">
         <v>1.806728467361962</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>45.92967977329253</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.05969626983620929</v>
       </c>
-      <c r="H22" t="n">
-        <v>541.048865283449</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>544.3876964167836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>831.5891895592483</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.009940601424115713</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.01073342745301585</v>
+      </c>
+      <c r="D23">
         <v>4.530133378382063</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>8.951194049037991</v>
+      </c>
+      <c r="F23">
         <v>2.476966447189786</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>63.15330968827724</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.7163552380345116</v>
       </c>
-      <c r="H23" t="n">
-        <v>902.475894912556</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>911.4278817876229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1306.207438251494</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.009940601424115713</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.01073342745301585</v>
+      </c>
+      <c r="D24">
         <v>4.530133378382063</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>11.22692134964088</v>
+      </c>
+      <c r="F24">
         <v>3.700879279918856</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>71.76512464576953</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.253621666560395</v>
       </c>
-      <c r="H24" t="n">
-        <v>1387.467137823549</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1398.694851999219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1269.946281730015</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.01682255625619582</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.0181642618435653</v>
+      </c>
+      <c r="D25">
         <v>4.878605176719143</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>10.62006073614677</v>
+      </c>
+      <c r="F25">
         <v>3.088922863554321</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>86.11814957492352</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.2387850793448371</v>
       </c>
-      <c r="H25" t="n">
-        <v>1364.287566980813</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1374.908969422548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1223.20967999122</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.01835187955221363</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.0198155583747985</v>
+      </c>
+      <c r="D26">
         <v>7.492143664247253</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>8.192618282170365</v>
+      </c>
+      <c r="F26">
         <v>6.148704945376994</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>202.8560856653752</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.014836587215558</v>
       </c>
-      <c r="H26" t="n">
-        <v>1440.739802732988</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>1448.933884693981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>998.3905095580511</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.02064586449624033</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.02229250317164831</v>
+      </c>
+      <c r="D27">
         <v>4.878605176719143</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>8.04090312879684</v>
+      </c>
+      <c r="F27">
         <v>5.944719473255484</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>175.1069041356778</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.7760515078707207</v>
       </c>
-      <c r="H27" t="n">
-        <v>1185.117435716071</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>1193.159985483543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1072.524429557519</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.03670375910442725</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.039631116749597</v>
+      </c>
+      <c r="D28">
         <v>7.317907765078714</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>8.951194049037991</v>
+      </c>
+      <c r="F28">
         <v>4.429398823209969</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>155.9695375634726</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.5372664285258836</v>
       </c>
-      <c r="H28" t="n">
-        <v>1240.815243896911</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1249.769365303594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>969.381584340868</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.01758721790420472</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.0189899101091819</v>
+      </c>
+      <c r="D29">
         <v>6.620964168404551</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>9.709769815905622</v>
+      </c>
+      <c r="F29">
         <v>3.904864752040368</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>98.55743784685691</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H29" t="n">
-        <v>1078.601830865746</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1088.313003373857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1017.729793036173</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.01911654120022253</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.02064120664041511</v>
+      </c>
+      <c r="D30">
         <v>6.272492370067469</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>8.04090312879684</v>
+      </c>
+      <c r="F30">
         <v>6.003001036718775</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>120.5654094048929</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.4775701586896743</v>
       </c>
-      <c r="H30" t="n">
-        <v>1151.067382547742</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1159.109810341979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1040.292290427316</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.01911654120022253</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.02064120664041511</v>
+      </c>
+      <c r="D31">
         <v>6.620964168404551</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>8.496048588917418</v>
+      </c>
+      <c r="F31">
         <v>4.779088203989702</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>111.9535944474005</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>1.193925396724186</v>
       </c>
-      <c r="H31" t="n">
-        <v>1164.858979185035</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1173.356552439393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1224.015483469475</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.02064586449624033</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.02229250317164831</v>
+      </c>
+      <c r="D32">
         <v>4.18166158004498</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>9.254624355785046</v>
+      </c>
+      <c r="F32">
         <v>5.653311655939039</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>105.2555161471287</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.8357477777069302</v>
       </c>
-      <c r="H32" t="n">
-        <v>1339.962366494791</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>1349.218637489251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1345.691808685994</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.01529323296017802</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.01651296531233208</v>
+      </c>
+      <c r="D33">
         <v>11.49956934512368</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>9.406339509158569</v>
+      </c>
+      <c r="F33">
         <v>5.740734001133974</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>100.4711745040774</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.596962698362093</v>
       </c>
-      <c r="H33" t="n">
-        <v>1464.015542467651</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>1473.423101709162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1640.615881727354</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.02064586449624033</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.02229250317164831</v>
+      </c>
+      <c r="D34">
         <v>6.795200067573091</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>9.558054662532092</v>
+      </c>
+      <c r="F34">
         <v>3.438612244334055</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>38.27473314441046</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.313317936396605</v>
       </c>
-      <c r="H34" t="n">
-        <v>1690.458390984564</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1700.018092285771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1580.180620858222</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.01835187955221363</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.0198155583747985</v>
+      </c>
+      <c r="D35">
         <v>5.749784672561842</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>11.22692134964088</v>
+      </c>
+      <c r="F35">
         <v>2.447825665458141</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>23.92170821525652</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2387850793448371</v>
       </c>
-      <c r="H35" t="n">
-        <v>1612.557076370396</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>1623.78546139886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1136.988707817925</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.02523383438429374</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.02724639276534794</v>
+      </c>
+      <c r="D36">
         <v>5.052841075887683</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>10.62006073614677</v>
+      </c>
+      <c r="F36">
         <v>1.54446143177716</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>32.53352317274889</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H36" t="n">
-        <v>1176.264159872396</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1186.886233166924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>820.3079408636768</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.03976240569646285</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.04293370981206341</v>
+      </c>
+      <c r="D37">
         <v>3.658953882539357</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>9.102909202411521</v>
+      </c>
+      <c r="F37">
         <v>1.253053614460715</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>33.49039150135914</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2984813491810465</v>
       </c>
-      <c r="H37" t="n">
-        <v>859.0485836169134</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>868.1546641234405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>614.8280539086303</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.02293984944026704</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.02476944796849813</v>
+      </c>
+      <c r="D38">
         <v>1.916594890853949</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>8.951194049037991</v>
+      </c>
+      <c r="F38">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>17.22362991498471</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.2984813491810465</v>
       </c>
-      <c r="H38" t="n">
-        <v>635.0765010198447</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>644.029524667411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>387.591473040696</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.03058646592035604</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.03302593062466417</v>
+      </c>
+      <c r="D39">
         <v>1.916594890853949</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>5.006600061326335</v>
+      </c>
+      <c r="F39">
         <v>0.6993787615594687</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>12.4392882719334</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H39" t="n">
-        <v>402.7967139706356</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>407.8057534966662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>228.0423843461892</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.01758721790420472</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.0189899101091819</v>
+      </c>
+      <c r="D40">
         <v>0.6969435966741633</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>2.27572730060288</v>
+      </c>
+      <c r="F40">
         <v>0.6410971980961798</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>21.05110322942576</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.1193925396724186</v>
       </c>
-      <c r="H40" t="n">
-        <v>250.5685081279619</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>252.8456381207698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>137.7923947816197</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.01299924801615132</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.01403602051548227</v>
+      </c>
+      <c r="D41">
         <v>0.1742358991685408</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.9102909202411517</v>
+      </c>
+      <c r="F41">
         <v>0.9325050154126251</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>20.09423490081549</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.05969626983620929</v>
       </c>
-      <c r="H41" t="n">
-        <v>159.0660661148687</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>159.9773938076092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>103.142845216651</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.01988120284823143</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.02146685490603171</v>
+      </c>
+      <c r="D42">
         <v>0.3484717983370816</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.3034303067470507</v>
+      </c>
+      <c r="F42">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>14.35302492915392</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>118.6510242537446</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>118.9560402125495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>60.43526086913144</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.009175939776106814</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.009907779187399251</v>
+      </c>
+      <c r="D43">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.1517151533735253</v>
+      </c>
+      <c r="F43">
         <v>0.6119564163645351</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>21.05110322942576</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>82.63020415220348</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>82.78265114498828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>82.19195478201873</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.00688195483208011</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.007430834390549438</v>
+      </c>
+      <c r="D44">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.213721226988203</v>
+      </c>
+      <c r="F44">
         <v>0.5828156346328907</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>11.48241994332313</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>94.78678001231246</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>96.00105011885913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>165.1897130422926</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.01070526307212461</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.01155907571863246</v>
+      </c>
+      <c r="D45">
         <v>0.5227076975056225</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.7585757668676263</v>
+      </c>
+      <c r="F45">
         <v>0.7868011067544027</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>23.92170821525652</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.1790888095086279</v>
       </c>
-      <c r="H45" t="n">
-        <v>190.6107241343899</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>191.370153713904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>489.9285147790919</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.01376390966416022</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.01486166878109888</v>
+      </c>
+      <c r="D46">
         <v>3.310482084202276</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>3.337733374217557</v>
+      </c>
+      <c r="F46">
         <v>1.806728467361962</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>45.92967977329253</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.05969626983620929</v>
       </c>
-      <c r="H46" t="n">
-        <v>541.048865283449</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>544.3876964167836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>831.5891895592483</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.009940601424115713</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.01073342745301585</v>
+      </c>
+      <c r="D47">
         <v>4.530133378382063</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>8.951194049037991</v>
+      </c>
+      <c r="F47">
         <v>2.476966447189786</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>63.15330968827724</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.7163552380345116</v>
       </c>
-      <c r="H47" t="n">
-        <v>902.475894912556</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>911.4278817876229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1306.207438251494</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.009940601424115713</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.01073342745301585</v>
+      </c>
+      <c r="D48">
         <v>4.530133378382063</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>11.22692134964088</v>
+      </c>
+      <c r="F48">
         <v>3.700879279918856</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>71.76512464576953</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.253621666560395</v>
       </c>
-      <c r="H48" t="n">
-        <v>1387.467137823549</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1398.694851999219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1269.946281730015</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.01682255625619582</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.0181642618435653</v>
+      </c>
+      <c r="D49">
         <v>4.878605176719143</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>10.62006073614677</v>
+      </c>
+      <c r="F49">
         <v>3.088922863554321</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>86.11814957492352</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2387850793448371</v>
       </c>
-      <c r="H49" t="n">
-        <v>1364.287566980813</v>
+      <c r="I49">
+        <v>1374.908969422548</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1223.20967999122</v>
+        <v>2074.13815302859</v>
       </c>
       <c r="C2">
-        <v>0.0198155583747985</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D2">
-        <v>7.492143664247253</v>
+        <v>12.70406969154969</v>
       </c>
       <c r="E2">
-        <v>8.192618282170365</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F2">
-        <v>6.148704945376994</v>
+        <v>10.42606490737839</v>
       </c>
       <c r="G2">
-        <v>202.8560856653752</v>
+        <v>343.9733626499846</v>
       </c>
       <c r="H2">
-        <v>1.014836587215558</v>
+        <v>1.720809865278555</v>
       </c>
       <c r="I2">
-        <v>1448.933884693981</v>
+        <v>2456.887891437619</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>909.7521269499916</v>
+        <v>1542.623171784769</v>
       </c>
       <c r="C3">
-        <v>0.02064120664041511</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D3">
-        <v>7.317907765078714</v>
+        <v>12.40862621035087</v>
       </c>
       <c r="E3">
-        <v>5.765175828193964</v>
+        <v>9.775732926068025</v>
       </c>
       <c r="F3">
-        <v>6.4109719809618</v>
+        <v>10.87077857641348</v>
       </c>
       <c r="G3">
-        <v>142.573380962929</v>
+        <v>241.754863371923</v>
       </c>
       <c r="H3">
-        <v>0.7760515078707207</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I3">
-        <v>1072.616256201666</v>
+        <v>1818.784086602825</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>983.8860469494597</v>
+        <v>1668.328514392563</v>
       </c>
       <c r="C4">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D4">
-        <v>6.098256470898929</v>
+        <v>10.34052184195905</v>
       </c>
       <c r="E4">
-        <v>8.192618282170365</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F4">
-        <v>5.27448149342766</v>
+        <v>8.943686010594732</v>
       </c>
       <c r="G4">
-        <v>140.6596443057084</v>
+        <v>238.5098316488099</v>
       </c>
       <c r="H4">
-        <v>0.3581776190172558</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I4">
-        <v>1144.491517623854</v>
+        <v>1940.659529883927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>917.0043582542874</v>
+        <v>1554.920433561619</v>
       </c>
       <c r="C5">
-        <v>0.02724639276534794</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D5">
-        <v>8.014851361752878</v>
+        <v>13.59040013514618</v>
       </c>
       <c r="E5">
-        <v>6.675466748435113</v>
+        <v>11.31926970386824</v>
       </c>
       <c r="F5">
-        <v>4.429398823209969</v>
+        <v>7.510719743703859</v>
       </c>
       <c r="G5">
-        <v>127.2634877051647</v>
+        <v>215.7946095870186</v>
       </c>
       <c r="H5">
-        <v>0.6566589681983023</v>
+        <v>1.113465206944947</v>
       </c>
       <c r="I5">
-        <v>1064.071468253814</v>
+        <v>1804.295098343425</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>952.4597112975108</v>
+        <v>1615.040380026215</v>
       </c>
       <c r="C6">
-        <v>0.03302593062466417</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D6">
-        <v>6.795200067573091</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E6">
-        <v>8.647763742290941</v>
+        <v>14.66359938910203</v>
       </c>
       <c r="F6">
-        <v>5.128777584769439</v>
+        <v>8.696622861130786</v>
       </c>
       <c r="G6">
-        <v>132.0478293482161</v>
+        <v>223.9071888948011</v>
       </c>
       <c r="H6">
-        <v>0.7163552380345116</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I6">
-        <v>1105.82866320902</v>
+        <v>1875.10077674573</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>936.3436417324097</v>
+        <v>1587.713131633216</v>
       </c>
       <c r="C7">
-        <v>0.02642074449973134</v>
+        <v>0.04480039284737052</v>
       </c>
       <c r="D7">
-        <v>8.36332316008996</v>
+        <v>14.18128709754384</v>
       </c>
       <c r="E7">
-        <v>6.523751595061586</v>
+        <v>11.06201357423486</v>
       </c>
       <c r="F7">
-        <v>5.769874782865617</v>
+        <v>9.783700718772135</v>
       </c>
       <c r="G7">
-        <v>134.9184343340468</v>
+        <v>228.7747364794708</v>
       </c>
       <c r="H7">
-        <v>0.6566589681983023</v>
+        <v>1.113465206944947</v>
       </c>
       <c r="I7">
-        <v>1092.602105317172</v>
+        <v>1852.67313510303</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>986.3034573842249</v>
+        <v>1672.427601651511</v>
       </c>
       <c r="C8">
-        <v>0.02889768929658115</v>
+        <v>0.04900042967681151</v>
       </c>
       <c r="D8">
-        <v>5.749784672561842</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E8">
-        <v>6.978897055182166</v>
+        <v>11.83378196313498</v>
       </c>
       <c r="F8">
-        <v>5.187059148232726</v>
+        <v>8.795448120916364</v>
       </c>
       <c r="G8">
-        <v>103.3417794899082</v>
+        <v>175.2317130481053</v>
       </c>
       <c r="H8">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I8">
-        <v>1108.425623217114</v>
+        <v>1879.504317629018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1345.691808685994</v>
+        <v>2281.825240815379</v>
       </c>
       <c r="C9">
-        <v>0.01651296531233208</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D9">
-        <v>11.49956934512368</v>
+        <v>19.49926975912278</v>
       </c>
       <c r="E9">
-        <v>9.406339509158569</v>
+        <v>15.94988003726888</v>
       </c>
       <c r="F9">
-        <v>5.740734001133974</v>
+        <v>9.734288088879346</v>
       </c>
       <c r="G9">
-        <v>100.4711745040774</v>
+        <v>170.3641654634357</v>
       </c>
       <c r="H9">
-        <v>0.596962698362093</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I9">
-        <v>1473.423101709162</v>
+        <v>2498.413085506839</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1640.615881727354</v>
+        <v>2781.913886407253</v>
       </c>
       <c r="C10">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D10">
-        <v>6.795200067573091</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E10">
-        <v>9.558054662532092</v>
+        <v>16.20713616690225</v>
       </c>
       <c r="F10">
-        <v>3.438612244334055</v>
+        <v>5.830690327349048</v>
       </c>
       <c r="G10">
-        <v>38.27473314441046</v>
+        <v>64.90063446226119</v>
       </c>
       <c r="H10">
-        <v>1.313317936396605</v>
+        <v>2.226930413889894</v>
       </c>
       <c r="I10">
-        <v>1700.018092285771</v>
+        <v>2882.639373875875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1580.180620858222</v>
+        <v>2679.43670493351</v>
       </c>
       <c r="C11">
-        <v>0.0198155583747985</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D11">
-        <v>5.749784672561842</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E11">
-        <v>11.22692134964088</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F11">
-        <v>2.447825665458141</v>
+        <v>4.150660910994239</v>
       </c>
       <c r="G11">
-        <v>23.92170821525652</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H11">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I11">
-        <v>1623.78546139886</v>
+        <v>2753.375347589373</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1136.988707817925</v>
+        <v>1927.937374126049</v>
       </c>
       <c r="C12">
-        <v>0.02724639276534794</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D12">
-        <v>5.052841075887683</v>
+        <v>8.567860954766068</v>
       </c>
       <c r="E12">
-        <v>10.62006073614677</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F12">
-        <v>1.54446143177716</v>
+        <v>2.618869384317794</v>
       </c>
       <c r="G12">
-        <v>32.53352317274889</v>
+        <v>55.16553929292202</v>
       </c>
       <c r="H12">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I12">
-        <v>1186.886233166924</v>
+        <v>2012.546221456959</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>820.3079408636768</v>
+        <v>1390.956943203627</v>
       </c>
       <c r="C13">
-        <v>0.04293370981206341</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D13">
-        <v>3.658953882539357</v>
+        <v>6.204313105175435</v>
       </c>
       <c r="E13">
-        <v>9.102909202411521</v>
+        <v>15.43536777800214</v>
       </c>
       <c r="F13">
-        <v>1.253053614460715</v>
+        <v>2.124743085389908</v>
       </c>
       <c r="G13">
-        <v>33.49039150135914</v>
+        <v>56.78805515447854</v>
       </c>
       <c r="H13">
-        <v>0.2984813491810465</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I13">
-        <v>868.1546641234405</v>
+        <v>1472.088343513661</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>614.8280539086303</v>
+        <v>1042.534526192895</v>
       </c>
       <c r="C14">
-        <v>0.02476944796849813</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D14">
-        <v>1.916594890853949</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E14">
-        <v>8.951194049037991</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F14">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G14">
-        <v>17.22362991498471</v>
+        <v>29.20528550801754</v>
       </c>
       <c r="H14">
-        <v>0.2984813491810465</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I14">
-        <v>644.029524667411</v>
+        <v>1092.050063566479</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>387.591473040696</v>
+        <v>657.2203238516157</v>
       </c>
       <c r="C15">
-        <v>0.03302593062466417</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D15">
-        <v>1.916594890853949</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E15">
-        <v>5.006600061326335</v>
+        <v>8.489452277901174</v>
       </c>
       <c r="F15">
-        <v>0.6993787615594687</v>
+        <v>1.185903117426925</v>
       </c>
       <c r="G15">
-        <v>12.4392882719334</v>
+        <v>21.09270620023489</v>
       </c>
       <c r="H15">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I15">
-        <v>407.8057534966662</v>
+        <v>691.4967124508697</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>228.0423843461892</v>
+        <v>386.6805647609296</v>
       </c>
       <c r="C16">
-        <v>0.0189899101091819</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D16">
-        <v>0.6969435966741633</v>
+        <v>1.181773924795321</v>
       </c>
       <c r="E16">
-        <v>2.27572730060288</v>
+        <v>3.858841944500536</v>
       </c>
       <c r="F16">
-        <v>0.6410971980961798</v>
+        <v>1.087077857641348</v>
       </c>
       <c r="G16">
-        <v>21.05110322942576</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="H16">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I16">
-        <v>252.8456381207698</v>
+        <v>428.738255943914</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>137.7923947816197</v>
+        <v>233.6479737601377</v>
       </c>
       <c r="C17">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D17">
-        <v>0.1742358991685408</v>
+        <v>0.2954434811988301</v>
       </c>
       <c r="E17">
-        <v>0.9102909202411517</v>
+        <v>1.543536777800214</v>
       </c>
       <c r="F17">
-        <v>0.9325050154126251</v>
+        <v>1.581204156569234</v>
       </c>
       <c r="G17">
-        <v>20.09423490081549</v>
+        <v>34.07283309268712</v>
       </c>
       <c r="H17">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I17">
-        <v>159.9773938076092</v>
+        <v>271.2660155868155</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>103.142845216651</v>
+        <v>174.8943897151907</v>
       </c>
       <c r="C18">
-        <v>0.02146685490603171</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D18">
-        <v>0.3484717983370816</v>
+        <v>0.5908869623976603</v>
       </c>
       <c r="E18">
-        <v>0.3034303067470507</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F18">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G18">
-        <v>14.35302492915392</v>
+        <v>24.33773792334795</v>
       </c>
       <c r="I18">
-        <v>118.9560402125495</v>
+        <v>201.7080681864968</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>60.43526086913144</v>
+        <v>102.4771814737446</v>
       </c>
       <c r="C19">
-        <v>0.009907779187399251</v>
+        <v>0.01680014731776395</v>
       </c>
       <c r="D19">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E19">
-        <v>0.1517151533735253</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F19">
-        <v>0.6119564163645351</v>
+        <v>1.03766522774856</v>
       </c>
       <c r="G19">
-        <v>21.05110322942576</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="I19">
-        <v>82.78265114498828</v>
+        <v>140.3705823762844</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>82.19195478201873</v>
+        <v>139.3689668042927</v>
       </c>
       <c r="C20">
-        <v>0.007430834390549438</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D20">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E20">
-        <v>1.213721226988203</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F20">
-        <v>0.5828156346328907</v>
+        <v>0.988252597855771</v>
       </c>
       <c r="G20">
-        <v>11.48241994332313</v>
+        <v>19.47019033867835</v>
       </c>
       <c r="I20">
-        <v>96.00105011885913</v>
+        <v>162.7843893319786</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>165.1897130422926</v>
+        <v>280.1042960282352</v>
       </c>
       <c r="C21">
-        <v>0.01155907571863246</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D21">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E21">
-        <v>0.7585757668676263</v>
+        <v>1.286280648166845</v>
       </c>
       <c r="F21">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G21">
-        <v>23.92170821525652</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H21">
-        <v>0.1790888095086279</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I21">
-        <v>191.370153713904</v>
+        <v>324.4972171670546</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>489.9285147790919</v>
+        <v>830.7483511471562</v>
       </c>
       <c r="C22">
-        <v>0.01486166878109888</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D22">
-        <v>3.310482084202276</v>
+        <v>5.61342614277777</v>
       </c>
       <c r="E22">
-        <v>3.337733374217557</v>
+        <v>5.659634851934122</v>
       </c>
       <c r="F22">
-        <v>1.806728467361962</v>
+        <v>3.06358305335289</v>
       </c>
       <c r="G22">
-        <v>45.92967977329253</v>
+        <v>77.88076135471341</v>
       </c>
       <c r="H22">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I22">
-        <v>544.3876964167836</v>
+        <v>923.0921808806334</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>831.5891895592483</v>
+        <v>1410.086017078725</v>
       </c>
       <c r="C23">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D23">
-        <v>4.530133378382063</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E23">
-        <v>8.951194049037991</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F23">
-        <v>2.476966447189786</v>
+        <v>4.200073540887026</v>
       </c>
       <c r="G23">
-        <v>63.15330968827724</v>
+        <v>107.0860468627309</v>
       </c>
       <c r="H23">
-        <v>0.7163552380345116</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I23">
-        <v>911.4278817876229</v>
+        <v>1545.464669118143</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1306.207438251494</v>
+        <v>2214.873482252533</v>
       </c>
       <c r="C24">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D24">
-        <v>4.530133378382063</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E24">
-        <v>11.22692134964088</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F24">
-        <v>3.700879279918856</v>
+        <v>6.275403996384149</v>
       </c>
       <c r="G24">
-        <v>71.76512464576953</v>
+        <v>121.6886896167397</v>
       </c>
       <c r="H24">
-        <v>1.253621666560395</v>
+        <v>2.125706304167627</v>
       </c>
       <c r="I24">
-        <v>1398.694851999219</v>
+        <v>2371.699966433458</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1269.946281730015</v>
+        <v>2153.387173368286</v>
       </c>
       <c r="C25">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D25">
-        <v>4.878605176719143</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E25">
-        <v>10.62006073614677</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F25">
-        <v>3.088922863554321</v>
+        <v>5.237738768635588</v>
       </c>
       <c r="G25">
-        <v>86.11814957492352</v>
+        <v>146.0264275400876</v>
       </c>
       <c r="H25">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I25">
-        <v>1374.908969422548</v>
+        <v>2331.367382933884</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1223.20967999122</v>
+        <v>2074.13815302859</v>
       </c>
       <c r="C26">
-        <v>0.0198155583747985</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D26">
-        <v>7.492143664247253</v>
+        <v>12.70406969154969</v>
       </c>
       <c r="E26">
-        <v>8.192618282170365</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F26">
-        <v>6.148704945376994</v>
+        <v>10.42606490737839</v>
       </c>
       <c r="G26">
-        <v>202.8560856653752</v>
+        <v>343.9733626499846</v>
       </c>
       <c r="H26">
-        <v>1.014836587215558</v>
+        <v>1.720809865278555</v>
       </c>
       <c r="I26">
-        <v>1448.933884693981</v>
+        <v>2456.887891437619</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>998.3905095580511</v>
+        <v>1692.923037946261</v>
       </c>
       <c r="C27">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D27">
-        <v>4.878605176719143</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E27">
-        <v>8.04090312879684</v>
+        <v>13.63457487056856</v>
       </c>
       <c r="F27">
-        <v>5.944719473255484</v>
+        <v>10.08017649812886</v>
       </c>
       <c r="G27">
-        <v>175.1069041356778</v>
+        <v>296.9204026648451</v>
       </c>
       <c r="H27">
-        <v>0.7760515078707207</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I27">
-        <v>1193.159985483543</v>
+        <v>2023.184323211225</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1072.524429557519</v>
+        <v>1818.628380554055</v>
       </c>
       <c r="C28">
-        <v>0.039631116749597</v>
+        <v>0.06720058927105579</v>
       </c>
       <c r="D28">
-        <v>7.317907765078714</v>
+        <v>12.40862621035087</v>
       </c>
       <c r="E28">
-        <v>8.951194049037991</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F28">
-        <v>4.429398823209969</v>
+        <v>7.510719743703859</v>
       </c>
       <c r="G28">
-        <v>155.9695375634726</v>
+        <v>264.4700854337142</v>
       </c>
       <c r="H28">
-        <v>0.5372664285258836</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I28">
-        <v>1249.769365303594</v>
+        <v>2119.174141166964</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>969.381584340868</v>
+        <v>1643.733990838863</v>
       </c>
       <c r="C29">
-        <v>0.0189899101091819</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D29">
-        <v>6.620964168404551</v>
+        <v>11.22685228555554</v>
       </c>
       <c r="E29">
-        <v>9.709769815905622</v>
+        <v>16.46439229653562</v>
       </c>
       <c r="F29">
-        <v>3.904864752040368</v>
+        <v>6.621292405633667</v>
       </c>
       <c r="G29">
-        <v>98.55743784685691</v>
+        <v>167.1191337403226</v>
       </c>
       <c r="H29">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I29">
-        <v>1088.313003373857</v>
+        <v>1845.400310068714</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1017.729793036173</v>
+        <v>1725.71573601786</v>
       </c>
       <c r="C30">
-        <v>0.02064120664041511</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D30">
-        <v>6.272492370067469</v>
+        <v>10.63596532315789</v>
       </c>
       <c r="E30">
-        <v>8.04090312879684</v>
+        <v>13.63457487056856</v>
       </c>
       <c r="F30">
-        <v>6.003001036718775</v>
+        <v>10.17900175791445</v>
       </c>
       <c r="G30">
-        <v>120.5654094048929</v>
+        <v>204.4369985561228</v>
       </c>
       <c r="H30">
-        <v>0.4775701586896743</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I30">
-        <v>1159.109810341979</v>
+        <v>1965.447069710314</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1040.292290427316</v>
+        <v>1763.973883768057</v>
       </c>
       <c r="C31">
-        <v>0.02064120664041511</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D31">
-        <v>6.620964168404551</v>
+        <v>11.22685228555554</v>
       </c>
       <c r="E31">
-        <v>8.496048588917418</v>
+        <v>14.40634325946866</v>
       </c>
       <c r="F31">
-        <v>4.779088203989702</v>
+        <v>8.103671302417325</v>
       </c>
       <c r="G31">
-        <v>111.9535944474005</v>
+        <v>189.834355802114</v>
       </c>
       <c r="H31">
-        <v>1.193925396724186</v>
+        <v>2.024482194445359</v>
       </c>
       <c r="I31">
-        <v>1173.356552439393</v>
+        <v>1989.60458891897</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1224.015483469475</v>
+        <v>2075.504515448241</v>
       </c>
       <c r="C32">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D32">
-        <v>4.18166158004498</v>
+        <v>7.090643548771922</v>
       </c>
       <c r="E32">
-        <v>9.254624355785046</v>
+        <v>15.69262390763551</v>
       </c>
       <c r="F32">
-        <v>5.653311655939039</v>
+        <v>9.586050199200981</v>
       </c>
       <c r="G32">
-        <v>105.2555161471287</v>
+        <v>178.4767447712183</v>
       </c>
       <c r="H32">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I32">
-        <v>1349.218637489251</v>
+        <v>2287.805515742644</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1345.691808685994</v>
+        <v>2281.825240815379</v>
       </c>
       <c r="C33">
-        <v>0.01651296531233208</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D33">
-        <v>11.49956934512368</v>
+        <v>19.49926975912278</v>
       </c>
       <c r="E33">
-        <v>9.406339509158569</v>
+        <v>15.94988003726888</v>
       </c>
       <c r="F33">
-        <v>5.740734001133974</v>
+        <v>9.734288088879346</v>
       </c>
       <c r="G33">
-        <v>100.4711745040774</v>
+        <v>170.3641654634357</v>
       </c>
       <c r="H33">
-        <v>0.596962698362093</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I33">
-        <v>1473.423101709162</v>
+        <v>2498.413085506839</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1640.615881727354</v>
+        <v>2781.913886407253</v>
       </c>
       <c r="C34">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D34">
-        <v>6.795200067573091</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E34">
-        <v>9.558054662532092</v>
+        <v>16.20713616690225</v>
       </c>
       <c r="F34">
-        <v>3.438612244334055</v>
+        <v>5.830690327349048</v>
       </c>
       <c r="G34">
-        <v>38.27473314441046</v>
+        <v>64.90063446226119</v>
       </c>
       <c r="H34">
-        <v>1.313317936396605</v>
+        <v>2.226930413889894</v>
       </c>
       <c r="I34">
-        <v>1700.018092285771</v>
+        <v>2882.639373875875</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1580.180620858222</v>
+        <v>2679.43670493351</v>
       </c>
       <c r="C35">
-        <v>0.0198155583747985</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D35">
-        <v>5.749784672561842</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E35">
-        <v>11.22692134964088</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F35">
-        <v>2.447825665458141</v>
+        <v>4.150660910994239</v>
       </c>
       <c r="G35">
-        <v>23.92170821525652</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H35">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I35">
-        <v>1623.78546139886</v>
+        <v>2753.375347589373</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1136.988707817925</v>
+        <v>1927.937374126049</v>
       </c>
       <c r="C36">
-        <v>0.02724639276534794</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D36">
-        <v>5.052841075887683</v>
+        <v>8.567860954766068</v>
       </c>
       <c r="E36">
-        <v>10.62006073614677</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F36">
-        <v>1.54446143177716</v>
+        <v>2.618869384317794</v>
       </c>
       <c r="G36">
-        <v>32.53352317274889</v>
+        <v>55.16553929292202</v>
       </c>
       <c r="H36">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I36">
-        <v>1186.886233166924</v>
+        <v>2012.546221456959</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>820.3079408636768</v>
+        <v>1390.956943203627</v>
       </c>
       <c r="C37">
-        <v>0.04293370981206341</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D37">
-        <v>3.658953882539357</v>
+        <v>6.204313105175435</v>
       </c>
       <c r="E37">
-        <v>9.102909202411521</v>
+        <v>15.43536777800214</v>
       </c>
       <c r="F37">
-        <v>1.253053614460715</v>
+        <v>2.124743085389908</v>
       </c>
       <c r="G37">
-        <v>33.49039150135914</v>
+        <v>56.78805515447854</v>
       </c>
       <c r="H37">
-        <v>0.2984813491810465</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I37">
-        <v>868.1546641234405</v>
+        <v>1472.088343513661</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>614.8280539086303</v>
+        <v>1042.534526192895</v>
       </c>
       <c r="C38">
-        <v>0.02476944796849813</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D38">
-        <v>1.916594890853949</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E38">
-        <v>8.951194049037991</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F38">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G38">
-        <v>17.22362991498471</v>
+        <v>29.20528550801754</v>
       </c>
       <c r="H38">
-        <v>0.2984813491810465</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I38">
-        <v>644.029524667411</v>
+        <v>1092.050063566479</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>387.591473040696</v>
+        <v>657.2203238516157</v>
       </c>
       <c r="C39">
-        <v>0.03302593062466417</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D39">
-        <v>1.916594890853949</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E39">
-        <v>5.006600061326335</v>
+        <v>8.489452277901174</v>
       </c>
       <c r="F39">
-        <v>0.6993787615594687</v>
+        <v>1.185903117426925</v>
       </c>
       <c r="G39">
-        <v>12.4392882719334</v>
+        <v>21.09270620023489</v>
       </c>
       <c r="H39">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I39">
-        <v>407.8057534966662</v>
+        <v>691.4967124508697</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>228.0423843461892</v>
+        <v>386.6805647609296</v>
       </c>
       <c r="C40">
-        <v>0.0189899101091819</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D40">
-        <v>0.6969435966741633</v>
+        <v>1.181773924795321</v>
       </c>
       <c r="E40">
-        <v>2.27572730060288</v>
+        <v>3.858841944500536</v>
       </c>
       <c r="F40">
-        <v>0.6410971980961798</v>
+        <v>1.087077857641348</v>
       </c>
       <c r="G40">
-        <v>21.05110322942576</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="H40">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I40">
-        <v>252.8456381207698</v>
+        <v>428.738255943914</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>137.7923947816197</v>
+        <v>233.6479737601377</v>
       </c>
       <c r="C41">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D41">
-        <v>0.1742358991685408</v>
+        <v>0.2954434811988301</v>
       </c>
       <c r="E41">
-        <v>0.9102909202411517</v>
+        <v>1.543536777800214</v>
       </c>
       <c r="F41">
-        <v>0.9325050154126251</v>
+        <v>1.581204156569234</v>
       </c>
       <c r="G41">
-        <v>20.09423490081549</v>
+        <v>34.07283309268712</v>
       </c>
       <c r="H41">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I41">
-        <v>159.9773938076092</v>
+        <v>271.2660155868155</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>103.142845216651</v>
+        <v>174.8943897151907</v>
       </c>
       <c r="C42">
-        <v>0.02146685490603171</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D42">
-        <v>0.3484717983370816</v>
+        <v>0.5908869623976603</v>
       </c>
       <c r="E42">
-        <v>0.3034303067470507</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F42">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G42">
-        <v>14.35302492915392</v>
+        <v>24.33773792334795</v>
       </c>
       <c r="I42">
-        <v>118.9560402125495</v>
+        <v>201.7080681864968</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>60.43526086913144</v>
+        <v>102.4771814737446</v>
       </c>
       <c r="C43">
-        <v>0.009907779187399251</v>
+        <v>0.01680014731776395</v>
       </c>
       <c r="D43">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E43">
-        <v>0.1517151533735253</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F43">
-        <v>0.6119564163645351</v>
+        <v>1.03766522774856</v>
       </c>
       <c r="G43">
-        <v>21.05110322942576</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="I43">
-        <v>82.78265114498828</v>
+        <v>140.3705823762844</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>82.19195478201873</v>
+        <v>139.3689668042927</v>
       </c>
       <c r="C44">
-        <v>0.007430834390549438</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D44">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E44">
-        <v>1.213721226988203</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F44">
-        <v>0.5828156346328907</v>
+        <v>0.988252597855771</v>
       </c>
       <c r="G44">
-        <v>11.48241994332313</v>
+        <v>19.47019033867835</v>
       </c>
       <c r="I44">
-        <v>96.00105011885913</v>
+        <v>162.7843893319786</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>165.1897130422926</v>
+        <v>280.1042960282352</v>
       </c>
       <c r="C45">
-        <v>0.01155907571863246</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D45">
-        <v>0.5227076975056225</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E45">
-        <v>0.7585757668676263</v>
+        <v>1.286280648166845</v>
       </c>
       <c r="F45">
-        <v>0.7868011067544027</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G45">
-        <v>23.92170821525652</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H45">
-        <v>0.1790888095086279</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I45">
-        <v>191.370153713904</v>
+        <v>324.4972171670546</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>489.9285147790919</v>
+        <v>830.7483511471562</v>
       </c>
       <c r="C46">
-        <v>0.01486166878109888</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D46">
-        <v>3.310482084202276</v>
+        <v>5.61342614277777</v>
       </c>
       <c r="E46">
-        <v>3.337733374217557</v>
+        <v>5.659634851934122</v>
       </c>
       <c r="F46">
-        <v>1.806728467361962</v>
+        <v>3.06358305335289</v>
       </c>
       <c r="G46">
-        <v>45.92967977329253</v>
+        <v>77.88076135471341</v>
       </c>
       <c r="H46">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I46">
-        <v>544.3876964167836</v>
+        <v>923.0921808806334</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>831.5891895592483</v>
+        <v>1410.086017078725</v>
       </c>
       <c r="C47">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D47">
-        <v>4.530133378382063</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E47">
-        <v>8.951194049037991</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F47">
-        <v>2.476966447189786</v>
+        <v>4.200073540887026</v>
       </c>
       <c r="G47">
-        <v>63.15330968827724</v>
+        <v>107.0860468627309</v>
       </c>
       <c r="H47">
-        <v>0.7163552380345116</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I47">
-        <v>911.4278817876229</v>
+        <v>1545.464669118143</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1306.207438251494</v>
+        <v>2214.873482252533</v>
       </c>
       <c r="C48">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D48">
-        <v>4.530133378382063</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E48">
-        <v>11.22692134964088</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F48">
-        <v>3.700879279918856</v>
+        <v>6.275403996384149</v>
       </c>
       <c r="G48">
-        <v>71.76512464576953</v>
+        <v>121.6886896167397</v>
       </c>
       <c r="H48">
-        <v>1.253621666560395</v>
+        <v>2.125706304167627</v>
       </c>
       <c r="I48">
-        <v>1398.694851999219</v>
+        <v>2371.699966433458</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1269.946281730015</v>
+        <v>2153.387173368286</v>
       </c>
       <c r="C49">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D49">
-        <v>4.878605176719143</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E49">
-        <v>10.62006073614677</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F49">
-        <v>3.088922863554321</v>
+        <v>5.237738768635588</v>
       </c>
       <c r="G49">
-        <v>86.11814957492352</v>
+        <v>146.0264275400876</v>
       </c>
       <c r="H49">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I49">
-        <v>1374.908969422548</v>
+        <v>2331.367382933884</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2074.13815302859</v>
+        <v>1220.199319827173</v>
       </c>
       <c r="C2">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D2">
-        <v>12.70406969154969</v>
+        <v>7.473705246697834</v>
       </c>
       <c r="E2">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F2">
-        <v>10.42606490737839</v>
+        <v>6.133572775700104</v>
       </c>
       <c r="G2">
-        <v>343.9733626499846</v>
+        <v>202.3568500156655</v>
       </c>
       <c r="H2">
-        <v>1.720809865278555</v>
+        <v>1.012339040241278</v>
       </c>
       <c r="I2">
-        <v>2456.887891437619</v>
+        <v>1445.368009670123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1542.623171784769</v>
+        <v>907.51319636685</v>
       </c>
       <c r="C3">
-        <v>0.03500030691200823</v>
+        <v>0.02059040793662409</v>
       </c>
       <c r="D3">
-        <v>12.40862621035087</v>
+        <v>7.299898147937418</v>
       </c>
       <c r="E3">
-        <v>9.775732926068025</v>
+        <v>5.750987536574121</v>
       </c>
       <c r="F3">
-        <v>10.87077857641348</v>
+        <v>6.395194363289208</v>
       </c>
       <c r="G3">
-        <v>241.754863371923</v>
+        <v>142.222503077048</v>
       </c>
       <c r="H3">
-        <v>1.315913426389483</v>
+        <v>0.7741416190080362</v>
       </c>
       <c r="I3">
-        <v>1818.784086602825</v>
+        <v>1069.976511518644</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1668.328514392563</v>
+        <v>981.4646702957689</v>
       </c>
       <c r="C4">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="D4">
-        <v>10.34052184195905</v>
+        <v>6.08324845661451</v>
       </c>
       <c r="E4">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F4">
-        <v>8.943686010594732</v>
+        <v>5.261500817069757</v>
       </c>
       <c r="G4">
-        <v>238.5098316488099</v>
+        <v>140.3134761901078</v>
       </c>
       <c r="H4">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I4">
-        <v>1940.659529883927</v>
+        <v>1141.674885505009</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1554.920433561619</v>
+        <v>914.7475796859833</v>
       </c>
       <c r="C5">
-        <v>0.04620040512385085</v>
+        <v>0.0271793384763438</v>
       </c>
       <c r="D5">
-        <v>13.59040013514618</v>
+        <v>7.995126542979081</v>
       </c>
       <c r="E5">
-        <v>11.31926970386824</v>
+        <v>6.659038200243725</v>
       </c>
       <c r="F5">
-        <v>7.510719743703859</v>
+        <v>4.418497923727089</v>
       </c>
       <c r="G5">
-        <v>215.7946095870186</v>
+        <v>126.9502879815261</v>
       </c>
       <c r="H5">
-        <v>1.113465206944947</v>
+        <v>0.6550429083914154</v>
       </c>
       <c r="I5">
-        <v>1804.295098343425</v>
+        <v>1061.452752581327</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1615.040380026215</v>
+        <v>950.115675912858</v>
       </c>
       <c r="C6">
-        <v>0.05600049105921315</v>
+        <v>0.03294465269859854</v>
       </c>
       <c r="D6">
-        <v>11.52229576675437</v>
+        <v>6.778476851656177</v>
       </c>
       <c r="E6">
-        <v>14.66359938910203</v>
+        <v>8.626481304861189</v>
       </c>
       <c r="F6">
-        <v>8.696622861130786</v>
+        <v>5.116155490631366</v>
       </c>
       <c r="G6">
-        <v>223.9071888948011</v>
+        <v>131.7228551988767</v>
       </c>
       <c r="H6">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I6">
-        <v>1875.10077674573</v>
+        <v>1103.107181675281</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1587.713131633216</v>
+        <v>934.0392685370058</v>
       </c>
       <c r="C7">
-        <v>0.04480039284737052</v>
+        <v>0.02635572215887884</v>
       </c>
       <c r="D7">
-        <v>14.18128709754384</v>
+        <v>8.342740740499909</v>
       </c>
       <c r="E7">
-        <v>11.06201357423486</v>
+        <v>6.50769642296546</v>
       </c>
       <c r="F7">
-        <v>9.783700718772135</v>
+        <v>5.755674926960288</v>
       </c>
       <c r="G7">
-        <v>228.7747364794708</v>
+        <v>134.5863955292871</v>
       </c>
       <c r="H7">
-        <v>1.113465206944947</v>
+        <v>0.6550429083914154</v>
       </c>
       <c r="I7">
-        <v>1852.67313510303</v>
+        <v>1089.913174787269</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1672.427601651511</v>
+        <v>983.8761314021473</v>
       </c>
       <c r="C8">
-        <v>0.04900042967681151</v>
+        <v>0.02882657111127373</v>
       </c>
       <c r="D8">
-        <v>9.749634879561389</v>
+        <v>5.735634259093688</v>
       </c>
       <c r="E8">
-        <v>11.83378196313498</v>
+        <v>6.961721754800255</v>
       </c>
       <c r="F8">
-        <v>8.795448120916364</v>
+        <v>5.174293621206724</v>
       </c>
       <c r="G8">
-        <v>175.2317130481053</v>
+        <v>103.087451894773</v>
       </c>
       <c r="H8">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I8">
-        <v>1879.504317629018</v>
+        <v>1105.697750477449</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2281.825240815379</v>
+        <v>1342.380015883648</v>
       </c>
       <c r="C9">
-        <v>0.02800024552960658</v>
+        <v>0.01647232634929927</v>
       </c>
       <c r="D9">
-        <v>19.49926975912278</v>
+        <v>11.47126851818738</v>
       </c>
       <c r="E9">
-        <v>15.94988003726888</v>
+        <v>9.383190191252517</v>
       </c>
       <c r="F9">
-        <v>9.734288088879346</v>
+        <v>5.72660586167261</v>
       </c>
       <c r="G9">
-        <v>170.3641654634357</v>
+        <v>100.2239115643627</v>
       </c>
       <c r="H9">
-        <v>1.012241097222679</v>
+        <v>0.5954935530831049</v>
       </c>
       <c r="I9">
-        <v>2498.413085506839</v>
+        <v>1469.796957898555</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2781.913886407253</v>
+        <v>1636.578270861741</v>
       </c>
       <c r="C10">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="D10">
-        <v>11.52229576675437</v>
+        <v>6.778476851656177</v>
       </c>
       <c r="E10">
-        <v>16.20713616690225</v>
+        <v>9.534531968530784</v>
       </c>
       <c r="F10">
-        <v>5.830690327349048</v>
+        <v>3.430149703946031</v>
       </c>
       <c r="G10">
-        <v>64.90063446226119</v>
+        <v>38.18053773880482</v>
       </c>
       <c r="H10">
-        <v>2.226930413889894</v>
+        <v>1.310085816782831</v>
       </c>
       <c r="I10">
-        <v>2882.639373875875</v>
+        <v>1695.834290582033</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>2679.43670493351</v>
+        <v>1576.291743202296</v>
       </c>
       <c r="C11">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D11">
-        <v>9.749634879561389</v>
+        <v>5.735634259093688</v>
       </c>
       <c r="E11">
-        <v>19.03695359286931</v>
+        <v>11.19929151859171</v>
       </c>
       <c r="F11">
-        <v>4.150660910994239</v>
+        <v>2.441801484164971</v>
       </c>
       <c r="G11">
-        <v>40.56289653891324</v>
+        <v>23.86283608675301</v>
       </c>
       <c r="H11">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I11">
-        <v>2753.375347589373</v>
+        <v>1619.789270763752</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1927.937374126049</v>
+        <v>1134.190540366364</v>
       </c>
       <c r="C12">
-        <v>0.04620040512385085</v>
+        <v>0.0271793384763438</v>
       </c>
       <c r="D12">
-        <v>8.567860954766068</v>
+        <v>5.040405864052028</v>
       </c>
       <c r="E12">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F12">
-        <v>2.618869384317794</v>
+        <v>1.540660460246946</v>
       </c>
       <c r="G12">
-        <v>55.16553929292202</v>
+        <v>32.45345707798412</v>
       </c>
       <c r="H12">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I12">
-        <v>2012.546221456959</v>
+        <v>1183.965266227219</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1390.956943203627</v>
+        <v>818.2891354308705</v>
       </c>
       <c r="C13">
-        <v>0.07280063837697712</v>
+        <v>0.0428280485081781</v>
       </c>
       <c r="D13">
-        <v>6.204313105175435</v>
+        <v>3.649949073968709</v>
       </c>
       <c r="E13">
-        <v>15.43536777800214</v>
+        <v>9.08050663669599</v>
       </c>
       <c r="F13">
-        <v>2.124743085389908</v>
+        <v>1.249969807370164</v>
       </c>
       <c r="G13">
-        <v>56.78805515447854</v>
+        <v>33.40797052145422</v>
       </c>
       <c r="H13">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I13">
-        <v>1472.088343513661</v>
+        <v>866.0181062954093</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1042.534526192895</v>
+        <v>613.3149413887568</v>
       </c>
       <c r="C14">
-        <v>0.04200036829440987</v>
+        <v>0.02470848952394892</v>
       </c>
       <c r="D14">
-        <v>3.24987829318713</v>
+        <v>1.911878086364563</v>
       </c>
       <c r="E14">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F14">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G14">
-        <v>29.20528550801754</v>
+        <v>17.18124198246217</v>
       </c>
       <c r="H14">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I14">
-        <v>1092.050063566479</v>
+        <v>642.4445463458341</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>657.2203238516157</v>
+        <v>386.6375973892422</v>
       </c>
       <c r="C15">
-        <v>0.05600049105921315</v>
+        <v>0.03294465269859854</v>
       </c>
       <c r="D15">
-        <v>3.24987829318713</v>
+        <v>1.911878086364563</v>
       </c>
       <c r="E15">
-        <v>8.489452277901174</v>
+        <v>4.994278650182792</v>
       </c>
       <c r="F15">
-        <v>1.185903117426925</v>
+        <v>0.6976575669042773</v>
       </c>
       <c r="G15">
-        <v>21.09270620023489</v>
+        <v>12.40867476511157</v>
       </c>
       <c r="H15">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I15">
-        <v>691.4967124508697</v>
+        <v>406.8021298211206</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>386.6805647609296</v>
+        <v>227.4811643683068</v>
       </c>
       <c r="C16">
-        <v>0.03220028235904757</v>
+        <v>0.01894317530169416</v>
       </c>
       <c r="D16">
-        <v>1.181773924795321</v>
+        <v>0.695228395041659</v>
       </c>
       <c r="E16">
-        <v>3.858841944500536</v>
+        <v>2.270126659173997</v>
       </c>
       <c r="F16">
-        <v>1.087077857641348</v>
+        <v>0.6395194363289207</v>
       </c>
       <c r="G16">
-        <v>35.69534895424365</v>
+        <v>20.99929575634266</v>
       </c>
       <c r="H16">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I16">
-        <v>428.738255943914</v>
+        <v>252.2233765011123</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>233.6479737601377</v>
+        <v>137.4532830635352</v>
       </c>
       <c r="C17">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D17">
-        <v>0.2954434811988301</v>
+        <v>0.1738070987604148</v>
       </c>
       <c r="E17">
-        <v>1.543536777800214</v>
+        <v>0.9080506636695983</v>
       </c>
       <c r="F17">
-        <v>1.581204156569234</v>
+        <v>0.9302100892057031</v>
       </c>
       <c r="G17">
-        <v>34.07283309268712</v>
+        <v>20.04478231287255</v>
       </c>
       <c r="H17">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I17">
-        <v>271.2660155868155</v>
+        <v>159.5836840607487</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>174.8943897151907</v>
+        <v>102.8890072054533</v>
       </c>
       <c r="C18">
-        <v>0.03640031918848856</v>
+        <v>0.02141402425408905</v>
       </c>
       <c r="D18">
-        <v>0.5908869623976603</v>
+        <v>0.3476141975208295</v>
       </c>
       <c r="E18">
-        <v>0.514512259266738</v>
+        <v>0.3026835545565328</v>
       </c>
       <c r="F18">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G18">
-        <v>24.33773792334795</v>
+        <v>14.31770165205181</v>
       </c>
       <c r="I18">
-        <v>201.7080681864968</v>
+        <v>118.6632853966039</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>102.4771814737446</v>
+        <v>60.28652765944531</v>
       </c>
       <c r="C19">
-        <v>0.01680014731776395</v>
+        <v>0.009883395809579565</v>
       </c>
       <c r="D19">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E19">
-        <v>0.257256129633369</v>
+        <v>0.1513417772782664</v>
       </c>
       <c r="F19">
-        <v>1.03766522774856</v>
+        <v>0.6104503710412427</v>
       </c>
       <c r="G19">
-        <v>35.69534895424365</v>
+        <v>20.99929575634266</v>
       </c>
       <c r="I19">
-        <v>140.3705823762844</v>
+        <v>82.57892025619832</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>139.3689668042927</v>
+        <v>81.9896776168456</v>
       </c>
       <c r="C20">
-        <v>0.01260011048832296</v>
+        <v>0.007412546857184675</v>
       </c>
       <c r="D20">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E20">
-        <v>2.058049037066952</v>
+        <v>1.210734218226131</v>
       </c>
       <c r="F20">
-        <v>0.988252597855771</v>
+        <v>0.5813813057535644</v>
       </c>
       <c r="G20">
-        <v>19.47019033867835</v>
+        <v>11.45416132164145</v>
       </c>
       <c r="I20">
-        <v>162.7843893319786</v>
+        <v>95.76478830560518</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>280.1042960282352</v>
+        <v>164.7831756024839</v>
       </c>
       <c r="C21">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D21">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E21">
-        <v>1.286280648166845</v>
+        <v>0.7567088863913319</v>
       </c>
       <c r="F21">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G21">
-        <v>40.56289653891324</v>
+        <v>23.86283608675301</v>
       </c>
       <c r="H21">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I21">
-        <v>324.4972171670546</v>
+        <v>190.8991853290462</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>830.7483511471562</v>
+        <v>488.7227842259032</v>
       </c>
       <c r="C22">
-        <v>0.02520022097664593</v>
+        <v>0.01482509371436935</v>
       </c>
       <c r="D22">
-        <v>5.61342614277777</v>
+        <v>3.302334876447879</v>
       </c>
       <c r="E22">
-        <v>5.659634851934122</v>
+        <v>3.329519100121862</v>
       </c>
       <c r="F22">
-        <v>3.06358305335289</v>
+        <v>1.80228204783605</v>
       </c>
       <c r="G22">
-        <v>77.88076135471341</v>
+        <v>45.8166452865658</v>
       </c>
       <c r="H22">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I22">
-        <v>923.0921808806334</v>
+        <v>543.0479399858975</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1410.086017078725</v>
+        <v>829.5426205939674</v>
       </c>
       <c r="C23">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D23">
-        <v>7.681530511169583</v>
+        <v>4.518984567770786</v>
       </c>
       <c r="E23">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F23">
-        <v>4.200073540887026</v>
+        <v>2.470870549452649</v>
       </c>
       <c r="G23">
-        <v>107.0860468627309</v>
+        <v>62.99788726902797</v>
       </c>
       <c r="H23">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I23">
-        <v>1545.464669118143</v>
+        <v>909.1848271154632</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2214.873482252533</v>
+        <v>1302.992817812811</v>
       </c>
       <c r="C24">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D24">
-        <v>7.681530511169583</v>
+        <v>4.518984567770786</v>
       </c>
       <c r="E24">
-        <v>19.03695359286931</v>
+        <v>11.19929151859171</v>
       </c>
       <c r="F24">
-        <v>6.275403996384149</v>
+        <v>3.691771291535134</v>
       </c>
       <c r="G24">
-        <v>121.6886896167397</v>
+        <v>71.58850826025908</v>
       </c>
       <c r="H24">
-        <v>2.125706304167627</v>
+        <v>1.25053646147452</v>
       </c>
       <c r="I24">
-        <v>2371.699966433458</v>
+        <v>1395.252616924569</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2153.387173368286</v>
+        <v>1266.820901217145</v>
       </c>
       <c r="C25">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D25">
-        <v>8.27241747356724</v>
+        <v>4.866598765291616</v>
       </c>
       <c r="E25">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F25">
-        <v>5.237738768635588</v>
+        <v>3.081320920493893</v>
       </c>
       <c r="G25">
-        <v>146.0264275400876</v>
+        <v>85.90620991231086</v>
       </c>
       <c r="H25">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I25">
-        <v>2331.367382933884</v>
+        <v>1371.525272204937</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2074.13815302859</v>
+        <v>1220.199319827173</v>
       </c>
       <c r="C26">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D26">
-        <v>12.70406969154969</v>
+        <v>7.473705246697834</v>
       </c>
       <c r="E26">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F26">
-        <v>10.42606490737839</v>
+        <v>6.133572775700104</v>
       </c>
       <c r="G26">
-        <v>343.9733626499846</v>
+        <v>202.3568500156655</v>
       </c>
       <c r="H26">
-        <v>1.720809865278555</v>
+        <v>1.012339040241278</v>
       </c>
       <c r="I26">
-        <v>2456.887891437619</v>
+        <v>1445.368009670123</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1692.923037946261</v>
+        <v>995.9334369340365</v>
       </c>
       <c r="C27">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="D27">
-        <v>8.27241747356724</v>
+        <v>4.866598765291616</v>
       </c>
       <c r="E27">
-        <v>13.63457487056856</v>
+        <v>8.021114195748121</v>
       </c>
       <c r="F27">
-        <v>10.08017649812886</v>
+        <v>5.930089318686358</v>
       </c>
       <c r="G27">
-        <v>296.9204026648451</v>
+        <v>174.6759601550321</v>
       </c>
       <c r="H27">
-        <v>1.315913426389483</v>
+        <v>0.7741416190080362</v>
       </c>
       <c r="I27">
-        <v>2023.184323211225</v>
+        <v>1190.223578628375</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1818.628380554055</v>
+        <v>1069.884910862955</v>
       </c>
       <c r="C28">
-        <v>0.06720058927105579</v>
+        <v>0.03953358323831826</v>
       </c>
       <c r="D28">
-        <v>12.40862621035087</v>
+        <v>7.299898147937418</v>
       </c>
       <c r="E28">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F28">
-        <v>7.510719743703859</v>
+        <v>4.418497923727089</v>
       </c>
       <c r="G28">
-        <v>264.4700854337142</v>
+        <v>155.5856912856297</v>
       </c>
       <c r="H28">
-        <v>0.9110169875004114</v>
+        <v>0.5359441977747944</v>
       </c>
       <c r="I28">
-        <v>2119.174141166964</v>
+        <v>1246.693640860681</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1643.733990838863</v>
+        <v>966.9959036575025</v>
       </c>
       <c r="C29">
-        <v>0.03220028235904757</v>
+        <v>0.01894317530169416</v>
       </c>
       <c r="D29">
-        <v>11.22685228555554</v>
+        <v>6.604669752895759</v>
       </c>
       <c r="E29">
-        <v>16.46439229653562</v>
+        <v>9.685873745809049</v>
       </c>
       <c r="F29">
-        <v>6.621292405633667</v>
+        <v>3.89525474854888</v>
       </c>
       <c r="G29">
-        <v>167.1191337403226</v>
+        <v>98.31488467742244</v>
       </c>
       <c r="H29">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I29">
-        <v>1845.400310068714</v>
+        <v>1085.634628468097</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1725.71573601786</v>
+        <v>1015.225125785059</v>
       </c>
       <c r="C30">
-        <v>0.03500030691200823</v>
+        <v>0.02059040793662409</v>
       </c>
       <c r="D30">
-        <v>10.63596532315789</v>
+        <v>6.25705555537493</v>
       </c>
       <c r="E30">
-        <v>13.63457487056856</v>
+        <v>8.021114195748121</v>
       </c>
       <c r="F30">
-        <v>10.17900175791445</v>
+        <v>5.988227449261712</v>
       </c>
       <c r="G30">
-        <v>204.4369985561228</v>
+        <v>120.2686938772353</v>
       </c>
       <c r="H30">
-        <v>0.8097928777781435</v>
+        <v>0.4763948424664838</v>
       </c>
       <c r="I30">
-        <v>1965.447069710314</v>
+        <v>1156.257202113082</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1763.973883768057</v>
+        <v>1037.732096111251</v>
       </c>
       <c r="C31">
-        <v>0.03500030691200823</v>
+        <v>0.02059040793662409</v>
       </c>
       <c r="D31">
-        <v>11.22685228555554</v>
+        <v>6.604669752895759</v>
       </c>
       <c r="E31">
-        <v>14.40634325946866</v>
+        <v>8.475139527582922</v>
       </c>
       <c r="F31">
-        <v>8.103671302417325</v>
+        <v>4.767326707179229</v>
       </c>
       <c r="G31">
-        <v>189.834355802114</v>
+        <v>111.6780728860041</v>
       </c>
       <c r="H31">
-        <v>2.024482194445359</v>
+        <v>1.19098710616621</v>
       </c>
       <c r="I31">
-        <v>1989.60458891897</v>
+        <v>1170.468882499016</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2075.504515448241</v>
+        <v>1221.003140195965</v>
       </c>
       <c r="C32">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="D32">
-        <v>7.090643548771922</v>
+        <v>4.171370370249955</v>
       </c>
       <c r="E32">
-        <v>15.69262390763551</v>
+        <v>9.231848413974253</v>
       </c>
       <c r="F32">
-        <v>9.586050199200981</v>
+        <v>5.639398665809574</v>
       </c>
       <c r="G32">
-        <v>178.4767447712183</v>
+        <v>104.9964787817133</v>
       </c>
       <c r="H32">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I32">
-        <v>2287.805515742644</v>
+        <v>1345.8981650426</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2281.825240815379</v>
+        <v>1342.380015883648</v>
       </c>
       <c r="C33">
-        <v>0.02800024552960658</v>
+        <v>0.01647232634929927</v>
       </c>
       <c r="D33">
-        <v>19.49926975912278</v>
+        <v>11.47126851818738</v>
       </c>
       <c r="E33">
-        <v>15.94988003726888</v>
+        <v>9.383190191252517</v>
       </c>
       <c r="F33">
-        <v>9.734288088879346</v>
+        <v>5.72660586167261</v>
       </c>
       <c r="G33">
-        <v>170.3641654634357</v>
+        <v>100.2239115643627</v>
       </c>
       <c r="H33">
-        <v>1.012241097222679</v>
+        <v>0.5954935530831049</v>
       </c>
       <c r="I33">
-        <v>2498.413085506839</v>
+        <v>1469.796957898555</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2781.913886407253</v>
+        <v>1636.578270861741</v>
       </c>
       <c r="C34">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="D34">
-        <v>11.52229576675437</v>
+        <v>6.778476851656177</v>
       </c>
       <c r="E34">
-        <v>16.20713616690225</v>
+        <v>9.534531968530784</v>
       </c>
       <c r="F34">
-        <v>5.830690327349048</v>
+        <v>3.430149703946031</v>
       </c>
       <c r="G34">
-        <v>64.90063446226119</v>
+        <v>38.18053773880482</v>
       </c>
       <c r="H34">
-        <v>2.226930413889894</v>
+        <v>1.310085816782831</v>
       </c>
       <c r="I34">
-        <v>2882.639373875875</v>
+        <v>1695.834290582033</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>2679.43670493351</v>
+        <v>1576.291743202296</v>
       </c>
       <c r="C35">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D35">
-        <v>9.749634879561389</v>
+        <v>5.735634259093688</v>
       </c>
       <c r="E35">
-        <v>19.03695359286931</v>
+        <v>11.19929151859171</v>
       </c>
       <c r="F35">
-        <v>4.150660910994239</v>
+        <v>2.441801484164971</v>
       </c>
       <c r="G35">
-        <v>40.56289653891324</v>
+        <v>23.86283608675301</v>
       </c>
       <c r="H35">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I35">
-        <v>2753.375347589373</v>
+        <v>1619.789270763752</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1927.937374126049</v>
+        <v>1134.190540366364</v>
       </c>
       <c r="C36">
-        <v>0.04620040512385085</v>
+        <v>0.0271793384763438</v>
       </c>
       <c r="D36">
-        <v>8.567860954766068</v>
+        <v>5.040405864052028</v>
       </c>
       <c r="E36">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F36">
-        <v>2.618869384317794</v>
+        <v>1.540660460246946</v>
       </c>
       <c r="G36">
-        <v>55.16553929292202</v>
+        <v>32.45345707798412</v>
       </c>
       <c r="H36">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I36">
-        <v>2012.546221456959</v>
+        <v>1183.965266227219</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1390.956943203627</v>
+        <v>818.2891354308705</v>
       </c>
       <c r="C37">
-        <v>0.07280063837697712</v>
+        <v>0.0428280485081781</v>
       </c>
       <c r="D37">
-        <v>6.204313105175435</v>
+        <v>3.649949073968709</v>
       </c>
       <c r="E37">
-        <v>15.43536777800214</v>
+        <v>9.08050663669599</v>
       </c>
       <c r="F37">
-        <v>2.124743085389908</v>
+        <v>1.249969807370164</v>
       </c>
       <c r="G37">
-        <v>56.78805515447854</v>
+        <v>33.40797052145422</v>
       </c>
       <c r="H37">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I37">
-        <v>1472.088343513661</v>
+        <v>866.0181062954093</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1042.534526192895</v>
+        <v>613.3149413887568</v>
       </c>
       <c r="C38">
-        <v>0.04200036829440987</v>
+        <v>0.02470848952394892</v>
       </c>
       <c r="D38">
-        <v>3.24987829318713</v>
+        <v>1.911878086364563</v>
       </c>
       <c r="E38">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F38">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G38">
-        <v>29.20528550801754</v>
+        <v>17.18124198246217</v>
       </c>
       <c r="H38">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I38">
-        <v>1092.050063566479</v>
+        <v>642.4445463458341</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>657.2203238516157</v>
+        <v>386.6375973892422</v>
       </c>
       <c r="C39">
-        <v>0.05600049105921315</v>
+        <v>0.03294465269859854</v>
       </c>
       <c r="D39">
-        <v>3.24987829318713</v>
+        <v>1.911878086364563</v>
       </c>
       <c r="E39">
-        <v>8.489452277901174</v>
+        <v>4.994278650182792</v>
       </c>
       <c r="F39">
-        <v>1.185903117426925</v>
+        <v>0.6976575669042773</v>
       </c>
       <c r="G39">
-        <v>21.09270620023489</v>
+        <v>12.40867476511157</v>
       </c>
       <c r="H39">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I39">
-        <v>691.4967124508697</v>
+        <v>406.8021298211206</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>386.6805647609296</v>
+        <v>227.4811643683068</v>
       </c>
       <c r="C40">
-        <v>0.03220028235904757</v>
+        <v>0.01894317530169416</v>
       </c>
       <c r="D40">
-        <v>1.181773924795321</v>
+        <v>0.695228395041659</v>
       </c>
       <c r="E40">
-        <v>3.858841944500536</v>
+        <v>2.270126659173997</v>
       </c>
       <c r="F40">
-        <v>1.087077857641348</v>
+        <v>0.6395194363289207</v>
       </c>
       <c r="G40">
-        <v>35.69534895424365</v>
+        <v>20.99929575634266</v>
       </c>
       <c r="H40">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I40">
-        <v>428.738255943914</v>
+        <v>252.2233765011123</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>233.6479737601377</v>
+        <v>137.4532830635352</v>
       </c>
       <c r="C41">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D41">
-        <v>0.2954434811988301</v>
+        <v>0.1738070987604148</v>
       </c>
       <c r="E41">
-        <v>1.543536777800214</v>
+        <v>0.9080506636695983</v>
       </c>
       <c r="F41">
-        <v>1.581204156569234</v>
+        <v>0.9302100892057031</v>
       </c>
       <c r="G41">
-        <v>34.07283309268712</v>
+        <v>20.04478231287255</v>
       </c>
       <c r="H41">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I41">
-        <v>271.2660155868155</v>
+        <v>159.5836840607487</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>174.8943897151907</v>
+        <v>102.8890072054533</v>
       </c>
       <c r="C42">
-        <v>0.03640031918848856</v>
+        <v>0.02141402425408905</v>
       </c>
       <c r="D42">
-        <v>0.5908869623976603</v>
+        <v>0.3476141975208295</v>
       </c>
       <c r="E42">
-        <v>0.514512259266738</v>
+        <v>0.3026835545565328</v>
       </c>
       <c r="F42">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G42">
-        <v>24.33773792334795</v>
+        <v>14.31770165205181</v>
       </c>
       <c r="I42">
-        <v>201.7080681864968</v>
+        <v>118.6632853966039</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>102.4771814737446</v>
+        <v>60.28652765944531</v>
       </c>
       <c r="C43">
-        <v>0.01680014731776395</v>
+        <v>0.009883395809579565</v>
       </c>
       <c r="D43">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E43">
-        <v>0.257256129633369</v>
+        <v>0.1513417772782664</v>
       </c>
       <c r="F43">
-        <v>1.03766522774856</v>
+        <v>0.6104503710412427</v>
       </c>
       <c r="G43">
-        <v>35.69534895424365</v>
+        <v>20.99929575634266</v>
       </c>
       <c r="I43">
-        <v>140.3705823762844</v>
+        <v>82.57892025619832</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>139.3689668042927</v>
+        <v>81.9896776168456</v>
       </c>
       <c r="C44">
-        <v>0.01260011048832296</v>
+        <v>0.007412546857184675</v>
       </c>
       <c r="D44">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E44">
-        <v>2.058049037066952</v>
+        <v>1.210734218226131</v>
       </c>
       <c r="F44">
-        <v>0.988252597855771</v>
+        <v>0.5813813057535644</v>
       </c>
       <c r="G44">
-        <v>19.47019033867835</v>
+        <v>11.45416132164145</v>
       </c>
       <c r="I44">
-        <v>162.7843893319786</v>
+        <v>95.76478830560518</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>280.1042960282352</v>
+        <v>164.7831756024839</v>
       </c>
       <c r="C45">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D45">
-        <v>0.8863304435964903</v>
+        <v>0.5214212962812443</v>
       </c>
       <c r="E45">
-        <v>1.286280648166845</v>
+        <v>0.7567088863913319</v>
       </c>
       <c r="F45">
-        <v>1.334141007105291</v>
+        <v>0.784864762767312</v>
       </c>
       <c r="G45">
-        <v>40.56289653891324</v>
+        <v>23.86283608675301</v>
       </c>
       <c r="H45">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I45">
-        <v>324.4972171670546</v>
+        <v>190.8991853290462</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>830.7483511471562</v>
+        <v>488.7227842259032</v>
       </c>
       <c r="C46">
-        <v>0.02520022097664593</v>
+        <v>0.01482509371436935</v>
       </c>
       <c r="D46">
-        <v>5.61342614277777</v>
+        <v>3.302334876447879</v>
       </c>
       <c r="E46">
-        <v>5.659634851934122</v>
+        <v>3.329519100121862</v>
       </c>
       <c r="F46">
-        <v>3.06358305335289</v>
+        <v>1.80228204783605</v>
       </c>
       <c r="G46">
-        <v>77.88076135471341</v>
+        <v>45.8166452865658</v>
       </c>
       <c r="H46">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I46">
-        <v>923.0921808806334</v>
+        <v>543.0479399858975</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1410.086017078725</v>
+        <v>829.5426205939674</v>
       </c>
       <c r="C47">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D47">
-        <v>7.681530511169583</v>
+        <v>4.518984567770786</v>
       </c>
       <c r="E47">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F47">
-        <v>4.200073540887026</v>
+        <v>2.470870549452649</v>
       </c>
       <c r="G47">
-        <v>107.0860468627309</v>
+        <v>62.99788726902797</v>
       </c>
       <c r="H47">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I47">
-        <v>1545.464669118143</v>
+        <v>909.1848271154632</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2214.873482252533</v>
+        <v>1302.992817812811</v>
       </c>
       <c r="C48">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D48">
-        <v>7.681530511169583</v>
+        <v>4.518984567770786</v>
       </c>
       <c r="E48">
-        <v>19.03695359286931</v>
+        <v>11.19929151859171</v>
       </c>
       <c r="F48">
-        <v>6.275403996384149</v>
+        <v>3.691771291535134</v>
       </c>
       <c r="G48">
-        <v>121.6886896167397</v>
+        <v>71.58850826025908</v>
       </c>
       <c r="H48">
-        <v>2.125706304167627</v>
+        <v>1.25053646147452</v>
       </c>
       <c r="I48">
-        <v>2371.699966433458</v>
+        <v>1395.252616924569</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2153.387173368286</v>
+        <v>1266.820901217145</v>
       </c>
       <c r="C49">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D49">
-        <v>8.27241747356724</v>
+        <v>4.866598765291616</v>
       </c>
       <c r="E49">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F49">
-        <v>5.237738768635588</v>
+        <v>3.081320920493893</v>
       </c>
       <c r="G49">
-        <v>146.0264275400876</v>
+        <v>85.90620991231086</v>
       </c>
       <c r="H49">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I49">
-        <v>2331.367382933884</v>
+        <v>1371.525272204937</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1220.199319827173</v>
+        <v>2074.13815302859</v>
       </c>
       <c r="C2">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D2">
-        <v>7.473705246697834</v>
+        <v>12.70406969154969</v>
       </c>
       <c r="E2">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F2">
-        <v>6.133572775700104</v>
+        <v>10.42606490737839</v>
       </c>
       <c r="G2">
-        <v>202.3568500156655</v>
+        <v>343.9733626499846</v>
       </c>
       <c r="H2">
-        <v>1.012339040241278</v>
+        <v>1.720809865278555</v>
       </c>
       <c r="I2">
-        <v>1445.368009670123</v>
+        <v>2456.887891437619</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>907.51319636685</v>
+        <v>1542.623171784769</v>
       </c>
       <c r="C3">
-        <v>0.02059040793662409</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D3">
-        <v>7.299898147937418</v>
+        <v>12.40862621035087</v>
       </c>
       <c r="E3">
-        <v>5.750987536574121</v>
+        <v>9.775732926068025</v>
       </c>
       <c r="F3">
-        <v>6.395194363289208</v>
+        <v>10.87077857641348</v>
       </c>
       <c r="G3">
-        <v>142.222503077048</v>
+        <v>241.754863371923</v>
       </c>
       <c r="H3">
-        <v>0.7741416190080362</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I3">
-        <v>1069.976511518644</v>
+        <v>1818.784086602825</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>981.4646702957689</v>
+        <v>1668.328514392563</v>
       </c>
       <c r="C4">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D4">
-        <v>6.08324845661451</v>
+        <v>10.34052184195905</v>
       </c>
       <c r="E4">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F4">
-        <v>5.261500817069757</v>
+        <v>8.943686010594732</v>
       </c>
       <c r="G4">
-        <v>140.3134761901078</v>
+        <v>238.5098316488099</v>
       </c>
       <c r="H4">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I4">
-        <v>1141.674885505009</v>
+        <v>1940.659529883927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>914.7475796859833</v>
+        <v>1554.920433561619</v>
       </c>
       <c r="C5">
-        <v>0.0271793384763438</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D5">
-        <v>7.995126542979081</v>
+        <v>13.59040013514618</v>
       </c>
       <c r="E5">
-        <v>6.659038200243725</v>
+        <v>11.31926970386824</v>
       </c>
       <c r="F5">
-        <v>4.418497923727089</v>
+        <v>7.510719743703859</v>
       </c>
       <c r="G5">
-        <v>126.9502879815261</v>
+        <v>215.7946095870186</v>
       </c>
       <c r="H5">
-        <v>0.6550429083914154</v>
+        <v>1.113465206944947</v>
       </c>
       <c r="I5">
-        <v>1061.452752581327</v>
+        <v>1804.295098343425</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>950.115675912858</v>
+        <v>1615.040380026215</v>
       </c>
       <c r="C6">
-        <v>0.03294465269859854</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D6">
-        <v>6.778476851656177</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E6">
-        <v>8.626481304861189</v>
+        <v>14.66359938910203</v>
       </c>
       <c r="F6">
-        <v>5.116155490631366</v>
+        <v>8.696622861130786</v>
       </c>
       <c r="G6">
-        <v>131.7228551988767</v>
+        <v>223.9071888948011</v>
       </c>
       <c r="H6">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I6">
-        <v>1103.107181675281</v>
+        <v>1875.10077674573</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>934.0392685370058</v>
+        <v>1587.713131633216</v>
       </c>
       <c r="C7">
-        <v>0.02635572215887884</v>
+        <v>0.04480039284737052</v>
       </c>
       <c r="D7">
-        <v>8.342740740499909</v>
+        <v>14.18128709754384</v>
       </c>
       <c r="E7">
-        <v>6.50769642296546</v>
+        <v>11.06201357423486</v>
       </c>
       <c r="F7">
-        <v>5.755674926960288</v>
+        <v>9.783700718772135</v>
       </c>
       <c r="G7">
-        <v>134.5863955292871</v>
+        <v>228.7747364794708</v>
       </c>
       <c r="H7">
-        <v>0.6550429083914154</v>
+        <v>1.113465206944947</v>
       </c>
       <c r="I7">
-        <v>1089.913174787269</v>
+        <v>1852.67313510303</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>983.8761314021473</v>
+        <v>1672.427601651511</v>
       </c>
       <c r="C8">
-        <v>0.02882657111127373</v>
+        <v>0.04900042967681151</v>
       </c>
       <c r="D8">
-        <v>5.735634259093688</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E8">
-        <v>6.961721754800255</v>
+        <v>11.83378196313498</v>
       </c>
       <c r="F8">
-        <v>5.174293621206724</v>
+        <v>8.795448120916364</v>
       </c>
       <c r="G8">
-        <v>103.087451894773</v>
+        <v>175.2317130481053</v>
       </c>
       <c r="H8">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I8">
-        <v>1105.697750477449</v>
+        <v>1879.504317629018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1342.380015883648</v>
+        <v>2281.825240815379</v>
       </c>
       <c r="C9">
-        <v>0.01647232634929927</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D9">
-        <v>11.47126851818738</v>
+        <v>19.49926975912278</v>
       </c>
       <c r="E9">
-        <v>9.383190191252517</v>
+        <v>15.94988003726888</v>
       </c>
       <c r="F9">
-        <v>5.72660586167261</v>
+        <v>9.734288088879346</v>
       </c>
       <c r="G9">
-        <v>100.2239115643627</v>
+        <v>170.3641654634357</v>
       </c>
       <c r="H9">
-        <v>0.5954935530831049</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I9">
-        <v>1469.796957898555</v>
+        <v>2498.413085506839</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1636.578270861741</v>
+        <v>2781.913886407253</v>
       </c>
       <c r="C10">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D10">
-        <v>6.778476851656177</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E10">
-        <v>9.534531968530784</v>
+        <v>16.20713616690225</v>
       </c>
       <c r="F10">
-        <v>3.430149703946031</v>
+        <v>5.830690327349048</v>
       </c>
       <c r="G10">
-        <v>38.18053773880482</v>
+        <v>64.90063446226119</v>
       </c>
       <c r="H10">
-        <v>1.310085816782831</v>
+        <v>2.226930413889894</v>
       </c>
       <c r="I10">
-        <v>1695.834290582033</v>
+        <v>2882.639373875875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1576.291743202296</v>
+        <v>2679.43670493351</v>
       </c>
       <c r="C11">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D11">
-        <v>5.735634259093688</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E11">
-        <v>11.19929151859171</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F11">
-        <v>2.441801484164971</v>
+        <v>4.150660910994239</v>
       </c>
       <c r="G11">
-        <v>23.86283608675301</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H11">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I11">
-        <v>1619.789270763752</v>
+        <v>2753.375347589373</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1134.190540366364</v>
+        <v>1927.937374126049</v>
       </c>
       <c r="C12">
-        <v>0.0271793384763438</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D12">
-        <v>5.040405864052028</v>
+        <v>8.567860954766068</v>
       </c>
       <c r="E12">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F12">
-        <v>1.540660460246946</v>
+        <v>2.618869384317794</v>
       </c>
       <c r="G12">
-        <v>32.45345707798412</v>
+        <v>55.16553929292202</v>
       </c>
       <c r="H12">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I12">
-        <v>1183.965266227219</v>
+        <v>2012.546221456959</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>818.2891354308705</v>
+        <v>1390.956943203627</v>
       </c>
       <c r="C13">
-        <v>0.0428280485081781</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D13">
-        <v>3.649949073968709</v>
+        <v>6.204313105175435</v>
       </c>
       <c r="E13">
-        <v>9.08050663669599</v>
+        <v>15.43536777800214</v>
       </c>
       <c r="F13">
-        <v>1.249969807370164</v>
+        <v>2.124743085389908</v>
       </c>
       <c r="G13">
-        <v>33.40797052145422</v>
+        <v>56.78805515447854</v>
       </c>
       <c r="H13">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I13">
-        <v>866.0181062954093</v>
+        <v>1472.088343513661</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>613.3149413887568</v>
+        <v>1042.534526192895</v>
       </c>
       <c r="C14">
-        <v>0.02470848952394892</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D14">
-        <v>1.911878086364563</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E14">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F14">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G14">
-        <v>17.18124198246217</v>
+        <v>29.20528550801754</v>
       </c>
       <c r="H14">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I14">
-        <v>642.4445463458341</v>
+        <v>1092.050063566479</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>386.6375973892422</v>
+        <v>657.2203238516157</v>
       </c>
       <c r="C15">
-        <v>0.03294465269859854</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D15">
-        <v>1.911878086364563</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E15">
-        <v>4.994278650182792</v>
+        <v>8.489452277901174</v>
       </c>
       <c r="F15">
-        <v>0.6976575669042773</v>
+        <v>1.185903117426925</v>
       </c>
       <c r="G15">
-        <v>12.40867476511157</v>
+        <v>21.09270620023489</v>
       </c>
       <c r="H15">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I15">
-        <v>406.8021298211206</v>
+        <v>691.4967124508697</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>227.4811643683068</v>
+        <v>386.6805647609296</v>
       </c>
       <c r="C16">
-        <v>0.01894317530169416</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D16">
-        <v>0.695228395041659</v>
+        <v>1.181773924795321</v>
       </c>
       <c r="E16">
-        <v>2.270126659173997</v>
+        <v>3.858841944500536</v>
       </c>
       <c r="F16">
-        <v>0.6395194363289207</v>
+        <v>1.087077857641348</v>
       </c>
       <c r="G16">
-        <v>20.99929575634266</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="H16">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I16">
-        <v>252.2233765011123</v>
+        <v>428.738255943914</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>137.4532830635352</v>
+        <v>233.6479737601377</v>
       </c>
       <c r="C17">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D17">
-        <v>0.1738070987604148</v>
+        <v>0.2954434811988301</v>
       </c>
       <c r="E17">
-        <v>0.9080506636695983</v>
+        <v>1.543536777800214</v>
       </c>
       <c r="F17">
-        <v>0.9302100892057031</v>
+        <v>1.581204156569234</v>
       </c>
       <c r="G17">
-        <v>20.04478231287255</v>
+        <v>34.07283309268712</v>
       </c>
       <c r="H17">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I17">
-        <v>159.5836840607487</v>
+        <v>271.2660155868155</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>102.8890072054533</v>
+        <v>174.8943897151907</v>
       </c>
       <c r="C18">
-        <v>0.02141402425408905</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D18">
-        <v>0.3476141975208295</v>
+        <v>0.5908869623976603</v>
       </c>
       <c r="E18">
-        <v>0.3026835545565328</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F18">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G18">
-        <v>14.31770165205181</v>
+        <v>24.33773792334795</v>
       </c>
       <c r="I18">
-        <v>118.6632853966039</v>
+        <v>201.7080681864968</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>60.28652765944531</v>
+        <v>102.4771814737446</v>
       </c>
       <c r="C19">
-        <v>0.009883395809579565</v>
+        <v>0.01680014731776395</v>
       </c>
       <c r="D19">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E19">
-        <v>0.1513417772782664</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F19">
-        <v>0.6104503710412427</v>
+        <v>1.03766522774856</v>
       </c>
       <c r="G19">
-        <v>20.99929575634266</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="I19">
-        <v>82.57892025619832</v>
+        <v>140.3705823762844</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>81.9896776168456</v>
+        <v>139.3689668042927</v>
       </c>
       <c r="C20">
-        <v>0.007412546857184675</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D20">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E20">
-        <v>1.210734218226131</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F20">
-        <v>0.5813813057535644</v>
+        <v>0.988252597855771</v>
       </c>
       <c r="G20">
-        <v>11.45416132164145</v>
+        <v>19.47019033867835</v>
       </c>
       <c r="I20">
-        <v>95.76478830560518</v>
+        <v>162.7843893319786</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>164.7831756024839</v>
+        <v>280.1042960282352</v>
       </c>
       <c r="C21">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D21">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E21">
-        <v>0.7567088863913319</v>
+        <v>1.286280648166845</v>
       </c>
       <c r="F21">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G21">
-        <v>23.86283608675301</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H21">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I21">
-        <v>190.8991853290462</v>
+        <v>324.4972171670546</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>488.7227842259032</v>
+        <v>830.7483511471562</v>
       </c>
       <c r="C22">
-        <v>0.01482509371436935</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D22">
-        <v>3.302334876447879</v>
+        <v>5.61342614277777</v>
       </c>
       <c r="E22">
-        <v>3.329519100121862</v>
+        <v>5.659634851934122</v>
       </c>
       <c r="F22">
-        <v>1.80228204783605</v>
+        <v>3.06358305335289</v>
       </c>
       <c r="G22">
-        <v>45.8166452865658</v>
+        <v>77.88076135471341</v>
       </c>
       <c r="H22">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I22">
-        <v>543.0479399858975</v>
+        <v>923.0921808806334</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>829.5426205939674</v>
+        <v>1410.086017078725</v>
       </c>
       <c r="C23">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D23">
-        <v>4.518984567770786</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E23">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F23">
-        <v>2.470870549452649</v>
+        <v>4.200073540887026</v>
       </c>
       <c r="G23">
-        <v>62.99788726902797</v>
+        <v>107.0860468627309</v>
       </c>
       <c r="H23">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I23">
-        <v>909.1848271154632</v>
+        <v>1545.464669118143</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1302.992817812811</v>
+        <v>2214.873482252533</v>
       </c>
       <c r="C24">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D24">
-        <v>4.518984567770786</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E24">
-        <v>11.19929151859171</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F24">
-        <v>3.691771291535134</v>
+        <v>6.275403996384149</v>
       </c>
       <c r="G24">
-        <v>71.58850826025908</v>
+        <v>121.6886896167397</v>
       </c>
       <c r="H24">
-        <v>1.25053646147452</v>
+        <v>2.125706304167627</v>
       </c>
       <c r="I24">
-        <v>1395.252616924569</v>
+        <v>2371.699966433458</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1266.820901217145</v>
+        <v>2153.387173368286</v>
       </c>
       <c r="C25">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D25">
-        <v>4.866598765291616</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E25">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F25">
-        <v>3.081320920493893</v>
+        <v>5.237738768635588</v>
       </c>
       <c r="G25">
-        <v>85.90620991231086</v>
+        <v>146.0264275400876</v>
       </c>
       <c r="H25">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I25">
-        <v>1371.525272204937</v>
+        <v>2331.367382933884</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1220.199319827173</v>
+        <v>2074.13815302859</v>
       </c>
       <c r="C26">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D26">
-        <v>7.473705246697834</v>
+        <v>12.70406969154969</v>
       </c>
       <c r="E26">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F26">
-        <v>6.133572775700104</v>
+        <v>10.42606490737839</v>
       </c>
       <c r="G26">
-        <v>202.3568500156655</v>
+        <v>343.9733626499846</v>
       </c>
       <c r="H26">
-        <v>1.012339040241278</v>
+        <v>1.720809865278555</v>
       </c>
       <c r="I26">
-        <v>1445.368009670123</v>
+        <v>2456.887891437619</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>995.9334369340365</v>
+        <v>1692.923037946261</v>
       </c>
       <c r="C27">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D27">
-        <v>4.866598765291616</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E27">
-        <v>8.021114195748121</v>
+        <v>13.63457487056856</v>
       </c>
       <c r="F27">
-        <v>5.930089318686358</v>
+        <v>10.08017649812886</v>
       </c>
       <c r="G27">
-        <v>174.6759601550321</v>
+        <v>296.9204026648451</v>
       </c>
       <c r="H27">
-        <v>0.7741416190080362</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I27">
-        <v>1190.223578628375</v>
+        <v>2023.184323211225</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1069.884910862955</v>
+        <v>1818.628380554055</v>
       </c>
       <c r="C28">
-        <v>0.03953358323831826</v>
+        <v>0.06720058927105579</v>
       </c>
       <c r="D28">
-        <v>7.299898147937418</v>
+        <v>12.40862621035087</v>
       </c>
       <c r="E28">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F28">
-        <v>4.418497923727089</v>
+        <v>7.510719743703859</v>
       </c>
       <c r="G28">
-        <v>155.5856912856297</v>
+        <v>264.4700854337142</v>
       </c>
       <c r="H28">
-        <v>0.5359441977747944</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I28">
-        <v>1246.693640860681</v>
+        <v>2119.174141166964</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>966.9959036575025</v>
+        <v>1643.733990838863</v>
       </c>
       <c r="C29">
-        <v>0.01894317530169416</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D29">
-        <v>6.604669752895759</v>
+        <v>11.22685228555554</v>
       </c>
       <c r="E29">
-        <v>9.685873745809049</v>
+        <v>16.46439229653562</v>
       </c>
       <c r="F29">
-        <v>3.89525474854888</v>
+        <v>6.621292405633667</v>
       </c>
       <c r="G29">
-        <v>98.31488467742244</v>
+        <v>167.1191337403226</v>
       </c>
       <c r="H29">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I29">
-        <v>1085.634628468097</v>
+        <v>1845.400310068714</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1015.225125785059</v>
+        <v>1725.71573601786</v>
       </c>
       <c r="C30">
-        <v>0.02059040793662409</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D30">
-        <v>6.25705555537493</v>
+        <v>10.63596532315789</v>
       </c>
       <c r="E30">
-        <v>8.021114195748121</v>
+        <v>13.63457487056856</v>
       </c>
       <c r="F30">
-        <v>5.988227449261712</v>
+        <v>10.17900175791445</v>
       </c>
       <c r="G30">
-        <v>120.2686938772353</v>
+        <v>204.4369985561228</v>
       </c>
       <c r="H30">
-        <v>0.4763948424664838</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I30">
-        <v>1156.257202113082</v>
+        <v>1965.447069710314</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1037.732096111251</v>
+        <v>1763.973883768057</v>
       </c>
       <c r="C31">
-        <v>0.02059040793662409</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D31">
-        <v>6.604669752895759</v>
+        <v>11.22685228555554</v>
       </c>
       <c r="E31">
-        <v>8.475139527582922</v>
+        <v>14.40634325946866</v>
       </c>
       <c r="F31">
-        <v>4.767326707179229</v>
+        <v>8.103671302417325</v>
       </c>
       <c r="G31">
-        <v>111.6780728860041</v>
+        <v>189.834355802114</v>
       </c>
       <c r="H31">
-        <v>1.19098710616621</v>
+        <v>2.024482194445359</v>
       </c>
       <c r="I31">
-        <v>1170.468882499016</v>
+        <v>1989.60458891897</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1221.003140195965</v>
+        <v>2075.504515448241</v>
       </c>
       <c r="C32">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D32">
-        <v>4.171370370249955</v>
+        <v>7.090643548771922</v>
       </c>
       <c r="E32">
-        <v>9.231848413974253</v>
+        <v>15.69262390763551</v>
       </c>
       <c r="F32">
-        <v>5.639398665809574</v>
+        <v>9.586050199200981</v>
       </c>
       <c r="G32">
-        <v>104.9964787817133</v>
+        <v>178.4767447712183</v>
       </c>
       <c r="H32">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I32">
-        <v>1345.8981650426</v>
+        <v>2287.805515742644</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1342.380015883648</v>
+        <v>2281.825240815379</v>
       </c>
       <c r="C33">
-        <v>0.01647232634929927</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D33">
-        <v>11.47126851818738</v>
+        <v>19.49926975912278</v>
       </c>
       <c r="E33">
-        <v>9.383190191252517</v>
+        <v>15.94988003726888</v>
       </c>
       <c r="F33">
-        <v>5.72660586167261</v>
+        <v>9.734288088879346</v>
       </c>
       <c r="G33">
-        <v>100.2239115643627</v>
+        <v>170.3641654634357</v>
       </c>
       <c r="H33">
-        <v>0.5954935530831049</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I33">
-        <v>1469.796957898555</v>
+        <v>2498.413085506839</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1636.578270861741</v>
+        <v>2781.913886407253</v>
       </c>
       <c r="C34">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="D34">
-        <v>6.778476851656177</v>
+        <v>11.52229576675437</v>
       </c>
       <c r="E34">
-        <v>9.534531968530784</v>
+        <v>16.20713616690225</v>
       </c>
       <c r="F34">
-        <v>3.430149703946031</v>
+        <v>5.830690327349048</v>
       </c>
       <c r="G34">
-        <v>38.18053773880482</v>
+        <v>64.90063446226119</v>
       </c>
       <c r="H34">
-        <v>1.310085816782831</v>
+        <v>2.226930413889894</v>
       </c>
       <c r="I34">
-        <v>1695.834290582033</v>
+        <v>2882.639373875875</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1576.291743202296</v>
+        <v>2679.43670493351</v>
       </c>
       <c r="C35">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D35">
-        <v>5.735634259093688</v>
+        <v>9.749634879561389</v>
       </c>
       <c r="E35">
-        <v>11.19929151859171</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F35">
-        <v>2.441801484164971</v>
+        <v>4.150660910994239</v>
       </c>
       <c r="G35">
-        <v>23.86283608675301</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H35">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I35">
-        <v>1619.789270763752</v>
+        <v>2753.375347589373</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1134.190540366364</v>
+        <v>1927.937374126049</v>
       </c>
       <c r="C36">
-        <v>0.0271793384763438</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D36">
-        <v>5.040405864052028</v>
+        <v>8.567860954766068</v>
       </c>
       <c r="E36">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F36">
-        <v>1.540660460246946</v>
+        <v>2.618869384317794</v>
       </c>
       <c r="G36">
-        <v>32.45345707798412</v>
+        <v>55.16553929292202</v>
       </c>
       <c r="H36">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I36">
-        <v>1183.965266227219</v>
+        <v>2012.546221456959</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>818.2891354308705</v>
+        <v>1390.956943203627</v>
       </c>
       <c r="C37">
-        <v>0.0428280485081781</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D37">
-        <v>3.649949073968709</v>
+        <v>6.204313105175435</v>
       </c>
       <c r="E37">
-        <v>9.08050663669599</v>
+        <v>15.43536777800214</v>
       </c>
       <c r="F37">
-        <v>1.249969807370164</v>
+        <v>2.124743085389908</v>
       </c>
       <c r="G37">
-        <v>33.40797052145422</v>
+        <v>56.78805515447854</v>
       </c>
       <c r="H37">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I37">
-        <v>866.0181062954093</v>
+        <v>1472.088343513661</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>613.3149413887568</v>
+        <v>1042.534526192895</v>
       </c>
       <c r="C38">
-        <v>0.02470848952394892</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D38">
-        <v>1.911878086364563</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E38">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F38">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G38">
-        <v>17.18124198246217</v>
+        <v>29.20528550801754</v>
       </c>
       <c r="H38">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I38">
-        <v>642.4445463458341</v>
+        <v>1092.050063566479</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>386.6375973892422</v>
+        <v>657.2203238516157</v>
       </c>
       <c r="C39">
-        <v>0.03294465269859854</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D39">
-        <v>1.911878086364563</v>
+        <v>3.24987829318713</v>
       </c>
       <c r="E39">
-        <v>4.994278650182792</v>
+        <v>8.489452277901174</v>
       </c>
       <c r="F39">
-        <v>0.6976575669042773</v>
+        <v>1.185903117426925</v>
       </c>
       <c r="G39">
-        <v>12.40867476511157</v>
+        <v>21.09270620023489</v>
       </c>
       <c r="H39">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I39">
-        <v>406.8021298211206</v>
+        <v>691.4967124508697</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>227.4811643683068</v>
+        <v>386.6805647609296</v>
       </c>
       <c r="C40">
-        <v>0.01894317530169416</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D40">
-        <v>0.695228395041659</v>
+        <v>1.181773924795321</v>
       </c>
       <c r="E40">
-        <v>2.270126659173997</v>
+        <v>3.858841944500536</v>
       </c>
       <c r="F40">
-        <v>0.6395194363289207</v>
+        <v>1.087077857641348</v>
       </c>
       <c r="G40">
-        <v>20.99929575634266</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="H40">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I40">
-        <v>252.2233765011123</v>
+        <v>428.738255943914</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>137.4532830635352</v>
+        <v>233.6479737601377</v>
       </c>
       <c r="C41">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D41">
-        <v>0.1738070987604148</v>
+        <v>0.2954434811988301</v>
       </c>
       <c r="E41">
-        <v>0.9080506636695983</v>
+        <v>1.543536777800214</v>
       </c>
       <c r="F41">
-        <v>0.9302100892057031</v>
+        <v>1.581204156569234</v>
       </c>
       <c r="G41">
-        <v>20.04478231287255</v>
+        <v>34.07283309268712</v>
       </c>
       <c r="H41">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I41">
-        <v>159.5836840607487</v>
+        <v>271.2660155868155</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>102.8890072054533</v>
+        <v>174.8943897151907</v>
       </c>
       <c r="C42">
-        <v>0.02141402425408905</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D42">
-        <v>0.3476141975208295</v>
+        <v>0.5908869623976603</v>
       </c>
       <c r="E42">
-        <v>0.3026835545565328</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F42">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G42">
-        <v>14.31770165205181</v>
+        <v>24.33773792334795</v>
       </c>
       <c r="I42">
-        <v>118.6632853966039</v>
+        <v>201.7080681864968</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>60.28652765944531</v>
+        <v>102.4771814737446</v>
       </c>
       <c r="C43">
-        <v>0.009883395809579565</v>
+        <v>0.01680014731776395</v>
       </c>
       <c r="D43">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E43">
-        <v>0.1513417772782664</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F43">
-        <v>0.6104503710412427</v>
+        <v>1.03766522774856</v>
       </c>
       <c r="G43">
-        <v>20.99929575634266</v>
+        <v>35.69534895424365</v>
       </c>
       <c r="I43">
-        <v>82.57892025619832</v>
+        <v>140.3705823762844</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>81.9896776168456</v>
+        <v>139.3689668042927</v>
       </c>
       <c r="C44">
-        <v>0.007412546857184675</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D44">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E44">
-        <v>1.210734218226131</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F44">
-        <v>0.5813813057535644</v>
+        <v>0.988252597855771</v>
       </c>
       <c r="G44">
-        <v>11.45416132164145</v>
+        <v>19.47019033867835</v>
       </c>
       <c r="I44">
-        <v>95.76478830560518</v>
+        <v>162.7843893319786</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>164.7831756024839</v>
+        <v>280.1042960282352</v>
       </c>
       <c r="C45">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D45">
-        <v>0.5214212962812443</v>
+        <v>0.8863304435964903</v>
       </c>
       <c r="E45">
-        <v>0.7567088863913319</v>
+        <v>1.286280648166845</v>
       </c>
       <c r="F45">
-        <v>0.784864762767312</v>
+        <v>1.334141007105291</v>
       </c>
       <c r="G45">
-        <v>23.86283608675301</v>
+        <v>40.56289653891324</v>
       </c>
       <c r="H45">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I45">
-        <v>190.8991853290462</v>
+        <v>324.4972171670546</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>488.7227842259032</v>
+        <v>830.7483511471562</v>
       </c>
       <c r="C46">
-        <v>0.01482509371436935</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D46">
-        <v>3.302334876447879</v>
+        <v>5.61342614277777</v>
       </c>
       <c r="E46">
-        <v>3.329519100121862</v>
+        <v>5.659634851934122</v>
       </c>
       <c r="F46">
-        <v>1.80228204783605</v>
+        <v>3.06358305335289</v>
       </c>
       <c r="G46">
-        <v>45.8166452865658</v>
+        <v>77.88076135471341</v>
       </c>
       <c r="H46">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I46">
-        <v>543.0479399858975</v>
+        <v>923.0921808806334</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>829.5426205939674</v>
+        <v>1410.086017078725</v>
       </c>
       <c r="C47">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D47">
-        <v>4.518984567770786</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E47">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F47">
-        <v>2.470870549452649</v>
+        <v>4.200073540887026</v>
       </c>
       <c r="G47">
-        <v>62.99788726902797</v>
+        <v>107.0860468627309</v>
       </c>
       <c r="H47">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I47">
-        <v>909.1848271154632</v>
+        <v>1545.464669118143</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1302.992817812811</v>
+        <v>2214.873482252533</v>
       </c>
       <c r="C48">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D48">
-        <v>4.518984567770786</v>
+        <v>7.681530511169583</v>
       </c>
       <c r="E48">
-        <v>11.19929151859171</v>
+        <v>19.03695359286931</v>
       </c>
       <c r="F48">
-        <v>3.691771291535134</v>
+        <v>6.275403996384149</v>
       </c>
       <c r="G48">
-        <v>71.58850826025908</v>
+        <v>121.6886896167397</v>
       </c>
       <c r="H48">
-        <v>1.25053646147452</v>
+        <v>2.125706304167627</v>
       </c>
       <c r="I48">
-        <v>1395.252616924569</v>
+        <v>2371.699966433458</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1266.820901217145</v>
+        <v>2153.387173368286</v>
       </c>
       <c r="C49">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D49">
-        <v>4.866598765291616</v>
+        <v>8.27241747356724</v>
       </c>
       <c r="E49">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F49">
-        <v>3.081320920493893</v>
+        <v>5.237738768635588</v>
       </c>
       <c r="G49">
-        <v>85.90620991231086</v>
+        <v>146.0264275400876</v>
       </c>
       <c r="H49">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I49">
-        <v>1371.525272204937</v>
+        <v>2331.367382933884</v>
       </c>
     </row>
   </sheetData>
